--- a/data/processed_data/Modifying Bobbies calculations 15Nov21.xlsx
+++ b/data/processed_data/Modifying Bobbies calculations 15Nov21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigaillewis/Desktop/FeDOC/data/processed_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47001470-DEA0-F84A-BEF6-54DD0984547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320EB304-CAC4-0547-854D-7D9DEF1EEED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13300" windowHeight="16340" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QAQC" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="237">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -936,7 +936,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1122,6 +1122,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1288,7 +1294,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
@@ -1403,9 +1409,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -42842,8 +42849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EFE594-213A-46CB-9AEC-BACB2527F3CD}">
   <dimension ref="A2:AN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F78" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52:L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -43102,20 +43109,18 @@
       <c r="AN19" s="53"/>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="48">
         <v>99.26</v>
       </c>
-      <c r="D20" s="54">
-        <v>16006.34</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54">
+      <c r="D20" s="48"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="48">
         <v>14172.3</v>
       </c>
       <c r="G20" s="48">
@@ -43126,39 +43131,37 @@
         <v>89.9</v>
       </c>
       <c r="J20" s="55">
-        <f>100*I20/C20</f>
+        <f t="shared" ref="J20:J49" si="2">100*I20/C20</f>
         <v>90.57021962522667</v>
       </c>
       <c r="K20" s="55"/>
-      <c r="L20" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L20" s="57"/>
       <c r="N20">
-        <f>C20</f>
+        <f t="shared" ref="N20:N49" si="3">C20</f>
         <v>99.26</v>
       </c>
       <c r="O20">
         <f>F20-D20</f>
-        <v>-1834.0400000000009</v>
+        <v>14172.3</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="S20" s="54">
+      <c r="S20" s="48">
         <v>89.9</v>
       </c>
-      <c r="T20" s="54">
+      <c r="T20" s="48">
         <v>0.361398</v>
       </c>
-      <c r="U20" s="54">
+      <c r="U20" s="48">
         <v>3.5456560000000001</v>
       </c>
       <c r="V20">
         <f>(S20-(S20*P20))</f>
         <v>89.9</v>
       </c>
-      <c r="W20" s="57">
-        <f t="shared" ref="W20:W43" si="2">100*T20/V20</f>
+      <c r="W20" s="56">
+        <f t="shared" ref="W20:W43" si="4">100*T20/V20</f>
         <v>0.40199999999999997</v>
       </c>
       <c r="X20">
@@ -43171,11 +43174,11 @@
       </c>
       <c r="AC20" s="46">
         <f>100*(((L21-L22)*0.027)/C21)</f>
-        <v>22.571471547154719</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="46">
         <f>(1000*(((L21-L22)*0.027)/55.85))/(C21/1000)</f>
-        <v>4041.4452188280602</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="46">
         <f>1000000*(X22-X21)/55.85/100</f>
@@ -43187,18 +43190,18 @@
       <c r="AI20" s="46"/>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" s="54"/>
-      <c r="B21" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="48">
         <v>99.99</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="48">
         <v>13557.7</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54">
+      <c r="E21" s="59"/>
+      <c r="F21" s="48">
         <v>13642.1</v>
       </c>
       <c r="G21" s="48">
@@ -43209,48 +43212,46 @@
         <v>85.1</v>
       </c>
       <c r="J21" s="55">
-        <f>100*I21/C21</f>
+        <f t="shared" si="2"/>
         <v>85.108510851085114</v>
       </c>
       <c r="K21" s="55"/>
-      <c r="L21" s="56">
-        <v>836.89682962962968</v>
-      </c>
+      <c r="L21" s="57"/>
       <c r="M21">
         <f>(1000*((L21-L22)/55.85)*0.027)/(C21/1000)</f>
-        <v>4041.4452188280602</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <f>C21</f>
+        <f t="shared" si="3"/>
         <v>99.99</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O49" si="3">F21-D21</f>
+        <f t="shared" ref="O21:O49" si="5">F21-D21</f>
         <v>84.399999999999636</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P30" si="4">(O21-N21)/O21</f>
+        <f t="shared" ref="P21:P30" si="6">(O21-N21)/O21</f>
         <v>-0.1847156398104316</v>
       </c>
-      <c r="S21" s="54">
+      <c r="S21" s="48">
         <v>85.1</v>
       </c>
-      <c r="T21" s="54">
+      <c r="T21" s="48">
         <v>0.28253200000000001</v>
       </c>
-      <c r="U21" s="54">
+      <c r="U21" s="48">
         <v>2.4168399999999997</v>
       </c>
       <c r="V21">
         <f>(S21-(S21*P21))</f>
         <v>100.81930094786772</v>
       </c>
-      <c r="W21" s="57">
-        <f t="shared" si="2"/>
+      <c r="W21" s="56">
+        <f t="shared" si="4"/>
         <v>0.28023602360235905</v>
       </c>
       <c r="X21">
-        <f t="shared" ref="X21:X43" si="5">100*U21/V21</f>
+        <f t="shared" ref="X21:X43" si="7">100*U21/V21</f>
         <v>2.397199719971987</v>
       </c>
       <c r="AB21" s="46"/>
@@ -43263,18 +43264,18 @@
       <c r="AI21" s="46"/>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="54"/>
-      <c r="B22" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="48">
         <v>99.29</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="48">
         <v>13445.9</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54">
+      <c r="E22" s="59"/>
+      <c r="F22" s="48">
         <v>13541.7</v>
       </c>
       <c r="G22" s="48">
@@ -43285,44 +43286,42 @@
         <v>95.55</v>
       </c>
       <c r="J22" s="55">
-        <f>100*I22/C22</f>
+        <f t="shared" si="2"/>
         <v>96.23325611844092</v>
       </c>
       <c r="K22" s="55"/>
-      <c r="L22" s="56">
-        <v>1</v>
-      </c>
+      <c r="L22" s="57"/>
       <c r="N22">
-        <f>C22</f>
+        <f t="shared" si="3"/>
         <v>99.29</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.800000000001091</v>
       </c>
       <c r="P22">
+        <f t="shared" si="6"/>
+        <v>-3.6430062630468427E-2</v>
+      </c>
+      <c r="S22" s="48">
+        <v>95.55</v>
+      </c>
+      <c r="T22" s="48">
+        <v>0.36117899999999997</v>
+      </c>
+      <c r="U22" s="48">
+        <v>3.1072859999999998</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ref="V22:V43" si="8">(S22-(S22*P22))</f>
+        <v>99.030892484341251</v>
+      </c>
+      <c r="W22" s="56">
         <f t="shared" si="4"/>
-        <v>-3.6430062630468427E-2</v>
-      </c>
-      <c r="S22" s="54">
-        <v>95.55</v>
-      </c>
-      <c r="T22" s="54">
-        <v>0.36117899999999997</v>
-      </c>
-      <c r="U22" s="54">
-        <v>3.1072859999999998</v>
-      </c>
-      <c r="V22">
-        <f t="shared" ref="V22:V43" si="6">(S22-(S22*P22))</f>
-        <v>99.030892484341251</v>
-      </c>
-      <c r="W22" s="57">
-        <f t="shared" si="2"/>
         <v>0.36471346560580531</v>
       </c>
       <c r="X22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1376936247356584</v>
       </c>
       <c r="AB22" s="46"/>
@@ -43335,20 +43334,18 @@
       <c r="AI22" s="46"/>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="48">
         <v>99.26</v>
       </c>
-      <c r="D23" s="54">
-        <v>16006.34</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54">
+      <c r="D23" s="48"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="48">
         <v>14172.3</v>
       </c>
       <c r="G23" s="48">
@@ -43359,43 +43356,41 @@
         <v>89.9</v>
       </c>
       <c r="J23" s="55">
-        <f>100*I23/C23</f>
+        <f t="shared" si="2"/>
         <v>90.57021962522667</v>
       </c>
       <c r="K23" s="55"/>
-      <c r="L23" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L23" s="57"/>
       <c r="N23">
-        <f>C23</f>
+        <f t="shared" si="3"/>
         <v>99.26</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
-        <v>-1834.0400000000009</v>
+        <f t="shared" si="5"/>
+        <v>14172.3</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="48">
         <v>89.9</v>
       </c>
-      <c r="T23" s="54">
+      <c r="T23" s="48">
         <v>0.361398</v>
       </c>
-      <c r="U23" s="54">
+      <c r="U23" s="48">
         <v>3.5456560000000001</v>
       </c>
       <c r="V23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89.9</v>
       </c>
-      <c r="W23" s="57">
-        <f t="shared" si="2"/>
+      <c r="W23" s="56">
+        <f t="shared" si="4"/>
         <v>0.40199999999999997</v>
       </c>
       <c r="X23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.944</v>
       </c>
       <c r="AB23" s="46">
@@ -43404,11 +43399,11 @@
       </c>
       <c r="AC23" s="46">
         <f>100*(((L24-L25)*0.027)/C24)</f>
-        <v>1.9988269026371204</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="46">
         <f>(1000*(((L24-L25)*0.027)/55.85))/(C24/1000)</f>
-        <v>357.89201479626149</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="46">
         <f>1000000*(X25-X24)/55.85/100</f>
@@ -43420,18 +43415,18 @@
       <c r="AI23" s="46"/>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="54"/>
-      <c r="B24" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="48">
         <v>99.73</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="48">
         <v>14080.6</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54">
+      <c r="E24" s="59"/>
+      <c r="F24" s="48">
         <v>14160.2</v>
       </c>
       <c r="G24" s="48">
@@ -43442,49 +43437,46 @@
         <v>75.02</v>
       </c>
       <c r="J24" s="55">
-        <f>100*I24/C24</f>
+        <f t="shared" si="2"/>
         <v>75.223102376416321</v>
       </c>
       <c r="K24" s="55"/>
-      <c r="L24" s="56">
-        <f>(0.001*20259)*((C24/1000)/0.027)</f>
-        <v>74.830743333333345</v>
-      </c>
+      <c r="L24" s="57"/>
       <c r="M24">
         <f>(1000*((L24-L25)/55.85)*0.027)/(C24/1000)</f>
-        <v>357.89201479626149</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <f>C24</f>
+        <f t="shared" si="3"/>
         <v>99.73</v>
       </c>
       <c r="O24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79.600000000000364</v>
       </c>
       <c r="P24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.25288944723617524</v>
       </c>
-      <c r="S24" s="54">
+      <c r="S24" s="48">
         <v>75.02</v>
       </c>
-      <c r="T24" s="54">
+      <c r="T24" s="48">
         <v>0.2430648</v>
       </c>
       <c r="U24" s="58">
         <v>1.6061782</v>
       </c>
       <c r="V24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>93.991766331657857</v>
       </c>
-      <c r="W24" s="57">
-        <f t="shared" si="2"/>
+      <c r="W24" s="56">
+        <f t="shared" si="4"/>
         <v>0.25860222601022881</v>
       </c>
       <c r="X24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7088498947157402</v>
       </c>
       <c r="AB24" s="46"/>
@@ -43497,18 +43489,18 @@
       <c r="AI24" s="46"/>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="54"/>
-      <c r="B25" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="48">
         <v>100.02</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="48">
         <v>14091.8</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54">
+      <c r="E25" s="59"/>
+      <c r="F25" s="48">
         <v>14188.8</v>
       </c>
       <c r="G25" s="48">
@@ -43519,44 +43511,42 @@
         <v>95.82</v>
       </c>
       <c r="J25" s="55">
-        <f>100*I25/C25</f>
+        <f t="shared" si="2"/>
         <v>95.800839832033603</v>
       </c>
       <c r="K25" s="55"/>
-      <c r="L25" s="56">
-        <v>1</v>
-      </c>
+      <c r="L25" s="57"/>
       <c r="N25">
-        <f>C25</f>
+        <f t="shared" si="3"/>
         <v>100.02</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="P25">
+        <f t="shared" si="6"/>
+        <v>-3.1134020618556659E-2</v>
+      </c>
+      <c r="S25" s="48">
+        <v>95.82</v>
+      </c>
+      <c r="T25" s="48">
+        <v>0.39477839999999992</v>
+      </c>
+      <c r="U25" s="48">
+        <v>3.104568</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="8"/>
+        <v>98.803261855670087</v>
+      </c>
+      <c r="W25" s="56">
         <f t="shared" si="4"/>
-        <v>-3.1134020618556659E-2</v>
-      </c>
-      <c r="S25" s="54">
-        <v>95.82</v>
-      </c>
-      <c r="T25" s="54">
-        <v>0.39477839999999992</v>
-      </c>
-      <c r="U25" s="54">
-        <v>3.104568</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="6"/>
-        <v>98.803261855670087</v>
-      </c>
-      <c r="W25" s="57">
-        <f t="shared" si="2"/>
         <v>0.3995600879824035</v>
       </c>
       <c r="X25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.142171565686863</v>
       </c>
       <c r="AB25" s="46"/>
@@ -43569,20 +43559,18 @@
       <c r="AI25" s="46"/>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="48">
         <v>99.52</v>
       </c>
-      <c r="D26" s="54">
-        <v>16005.16</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54">
+      <c r="D26" s="48"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="48">
         <v>14143.5</v>
       </c>
       <c r="G26" s="48">
@@ -43593,43 +43581,41 @@
         <v>91.71</v>
       </c>
       <c r="J26" s="55">
-        <f>100*I26/C26</f>
+        <f t="shared" si="2"/>
         <v>92.152331189710608</v>
       </c>
       <c r="K26" s="55"/>
-      <c r="L26" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L26" s="57"/>
       <c r="N26">
-        <f>C26</f>
+        <f t="shared" si="3"/>
         <v>99.52</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
-        <v>-1861.6599999999999</v>
+        <f t="shared" si="5"/>
+        <v>14143.5</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-      <c r="S26" s="54">
+      <c r="S26" s="48">
         <v>91.71</v>
       </c>
-      <c r="T26" s="54">
+      <c r="T26" s="48">
         <v>0.34024409999999994</v>
       </c>
-      <c r="U26" s="54">
+      <c r="U26" s="48">
         <v>3.6078713999999996</v>
       </c>
       <c r="V26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>91.71</v>
       </c>
-      <c r="W26" s="57">
-        <f t="shared" si="2"/>
+      <c r="W26" s="56">
+        <f t="shared" si="4"/>
         <v>0.371</v>
       </c>
       <c r="X26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9339999999999997</v>
       </c>
       <c r="AB26" s="46">
@@ -43638,11 +43624,11 @@
       </c>
       <c r="AC26" s="46">
         <f>100*(((L27-L28)*0.027)/C27)</f>
-        <v>7.2850678733031665E-2</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="46">
         <f>(1000*(((L27-L28)*0.027)/55.85))/(C27/1000)</f>
-        <v>13.043989030086244</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="46">
         <f>1000000*(X28-X27)/55.85/100</f>
@@ -43654,18 +43640,18 @@
       <c r="AI26" s="46"/>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" s="54"/>
-      <c r="B27" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="48">
         <v>99.45</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="48">
         <v>13522</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54">
+      <c r="E27" s="59"/>
+      <c r="F27" s="48">
         <v>13605.8</v>
       </c>
       <c r="G27" s="48">
@@ -43676,49 +43662,46 @@
         <v>83.32</v>
       </c>
       <c r="J27" s="55">
-        <f>100*I27/C27</f>
+        <f t="shared" si="2"/>
         <v>83.780794369029664</v>
       </c>
       <c r="K27" s="55"/>
-      <c r="L27" s="56">
-        <f>(0.001 *1000)*((C27/1000)/0.027)</f>
-        <v>3.6833333333333331</v>
-      </c>
+      <c r="L27" s="57"/>
       <c r="M27">
         <f>(1000*((L27-L28)/55.85)*0.027)/(C27/1000)</f>
-        <v>13.043989030086243</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <f>C27</f>
+        <f t="shared" si="3"/>
         <v>99.45</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>83.799999999999272</v>
       </c>
       <c r="P27">
+        <f t="shared" si="6"/>
+        <v>-0.18675417661098886</v>
+      </c>
+      <c r="S27" s="48">
+        <v>83.32</v>
+      </c>
+      <c r="T27" s="48">
+        <v>0.29911879999999996</v>
+      </c>
+      <c r="U27" s="48">
+        <v>2.3887844</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="8"/>
+        <v>98.880357995227584</v>
+      </c>
+      <c r="W27" s="56">
         <f t="shared" si="4"/>
-        <v>-0.18675417661098886</v>
-      </c>
-      <c r="S27" s="54">
-        <v>83.32</v>
-      </c>
-      <c r="T27" s="54">
-        <v>0.29911879999999996</v>
-      </c>
-      <c r="U27" s="54">
-        <v>2.3887844</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="6"/>
-        <v>98.880357995227584</v>
-      </c>
-      <c r="W27" s="57">
-        <f t="shared" si="2"/>
         <v>0.30250578179989679</v>
       </c>
       <c r="X27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4158330819507081</v>
       </c>
       <c r="AB27" s="46"/>
@@ -43731,18 +43714,18 @@
       <c r="AI27" s="46"/>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="54"/>
-      <c r="B28" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="48">
         <v>100.45</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="48">
         <v>14041.3</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54">
+      <c r="E28" s="59"/>
+      <c r="F28" s="48">
         <v>14136.9</v>
       </c>
       <c r="G28" s="48">
@@ -43753,44 +43736,42 @@
         <v>81.62</v>
       </c>
       <c r="J28" s="55">
-        <f>100*I28/C28</f>
+        <f t="shared" si="2"/>
         <v>81.254355400696866</v>
       </c>
       <c r="K28" s="55"/>
-      <c r="L28" s="56">
-        <v>1</v>
-      </c>
+      <c r="L28" s="57"/>
       <c r="N28">
-        <f>C28</f>
+        <f t="shared" si="3"/>
         <v>100.45</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.600000000000364</v>
       </c>
       <c r="P28">
         <f>(O28-N28)/O28</f>
         <v>-5.0732217573217789E-2</v>
       </c>
-      <c r="S28" s="54">
+      <c r="S28" s="48">
         <v>81.62</v>
       </c>
-      <c r="T28" s="54">
+      <c r="T28" s="48">
         <v>0.28240520000000002</v>
       </c>
-      <c r="U28" s="54">
+      <c r="U28" s="48">
         <v>2.4853290000000001</v>
       </c>
       <c r="V28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>85.760763598326037</v>
       </c>
-      <c r="W28" s="57">
-        <f t="shared" si="2"/>
+      <c r="W28" s="56">
+        <f t="shared" si="4"/>
         <v>0.32929417620706947</v>
       </c>
       <c r="X28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8979790940766663</v>
       </c>
       <c r="AB28" s="46"/>
@@ -43803,20 +43784,18 @@
       <c r="AI28" s="46"/>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="48">
         <v>99.52</v>
       </c>
-      <c r="D29" s="54">
-        <v>16005.16</v>
-      </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54">
+      <c r="D29" s="48"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="48">
         <v>14143.5</v>
       </c>
       <c r="G29" s="48">
@@ -43827,43 +43806,41 @@
         <v>91.71</v>
       </c>
       <c r="J29" s="55">
-        <f>100*I29/C29</f>
+        <f t="shared" si="2"/>
         <v>92.152331189710608</v>
       </c>
       <c r="K29" s="55"/>
-      <c r="L29" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L29" s="57"/>
       <c r="N29">
-        <f>C29</f>
+        <f t="shared" si="3"/>
         <v>99.52</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
-        <v>-1861.6599999999999</v>
+        <f t="shared" si="5"/>
+        <v>14143.5</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="S29" s="54">
+      <c r="S29" s="48">
         <v>91.71</v>
       </c>
-      <c r="T29" s="54">
+      <c r="T29" s="48">
         <v>0.34024409999999994</v>
       </c>
-      <c r="U29" s="54">
+      <c r="U29" s="48">
         <v>3.6078713999999996</v>
       </c>
       <c r="V29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>91.71</v>
       </c>
-      <c r="W29" s="57">
-        <f t="shared" si="2"/>
+      <c r="W29" s="56">
+        <f t="shared" si="4"/>
         <v>0.371</v>
       </c>
       <c r="X29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9339999999999997</v>
       </c>
       <c r="AB29" s="46">
@@ -43872,11 +43849,11 @@
       </c>
       <c r="AC29" s="46">
         <f>100*(((L30-L31)*0.027)/C30)</f>
-        <v>1.9387604265488505</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="46">
         <f>(1000*(((L30-L31)*0.027)/55.85))/(C30/1000)</f>
-        <v>347.13705041161154</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="46">
         <f>1000000*(X31-X30)/55.85/100</f>
@@ -43888,18 +43865,18 @@
       <c r="AI29" s="46"/>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="54"/>
-      <c r="B30" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="48">
         <v>99.59</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="48">
         <v>14104.9</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54">
+      <c r="E30" s="59"/>
+      <c r="F30" s="48">
         <v>14181.6</v>
       </c>
       <c r="G30" s="48">
@@ -43910,49 +43887,46 @@
         <v>73.180000000000007</v>
       </c>
       <c r="J30" s="55">
-        <f>100*I30/C30</f>
+        <f t="shared" si="2"/>
         <v>73.481273220202837</v>
       </c>
       <c r="K30" s="55"/>
-      <c r="L30" s="56">
-        <f>(0.001*348.5*55.84)*((C30/1000)/0.027)</f>
-        <v>71.779455614814822</v>
-      </c>
+      <c r="L30" s="57"/>
       <c r="M30">
         <f>(1000*((L30-L31)/55.85)*0.027)/(C30/1000)</f>
-        <v>347.13705041161148</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <f>C30</f>
+        <f t="shared" si="3"/>
         <v>99.59</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76.700000000000728</v>
       </c>
       <c r="P30">
+        <f t="shared" si="6"/>
+        <v>-0.29843546284223021</v>
+      </c>
+      <c r="S30" s="48">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="T30" s="48">
+        <v>0.21880820000000001</v>
+      </c>
+      <c r="U30" s="48">
+        <v>1.5828834000000001</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="8"/>
+        <v>95.019507170794412</v>
+      </c>
+      <c r="W30" s="56">
         <f t="shared" si="4"/>
-        <v>-0.29843546284223021</v>
-      </c>
-      <c r="S30" s="54">
-        <v>73.180000000000007</v>
-      </c>
-      <c r="T30" s="54">
-        <v>0.21880820000000001</v>
-      </c>
-      <c r="U30" s="54">
-        <v>1.5828834000000001</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="6"/>
-        <v>95.019507170794412</v>
-      </c>
-      <c r="W30" s="57">
-        <f t="shared" si="2"/>
         <v>0.23027713625866267</v>
       </c>
       <c r="X30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6658509890551418</v>
       </c>
       <c r="AB30" s="46"/>
@@ -43965,18 +43939,18 @@
       <c r="AI30" s="46"/>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" s="54"/>
-      <c r="B31" t="s">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="48">
         <v>99.65</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="48">
         <v>13460.4</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54">
+      <c r="E31" s="59"/>
+      <c r="F31" s="48">
         <v>13553.6</v>
       </c>
       <c r="G31" s="48">
@@ -43987,45 +43961,42 @@
         <v>94.05</v>
       </c>
       <c r="J31" s="55">
-        <f>100*I31/C31</f>
+        <f t="shared" si="2"/>
         <v>94.380331159056695</v>
       </c>
       <c r="K31" s="55"/>
-      <c r="L31" s="56">
-        <f>(0.001*1.3*55.84)*((C31/1000)/0.027)</f>
-        <v>0.26791825185185192</v>
-      </c>
+      <c r="L31" s="57"/>
       <c r="N31">
-        <f>C31</f>
+        <f t="shared" si="3"/>
         <v>99.65</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93.200000000000728</v>
       </c>
       <c r="P31">
         <f>(O31-N31)/O31</f>
         <v>-6.9206008583682699E-2</v>
       </c>
-      <c r="S31" s="54">
+      <c r="S31" s="48">
         <v>94.05</v>
       </c>
-      <c r="T31" s="54">
+      <c r="T31" s="48">
         <v>0.28309049999999997</v>
       </c>
-      <c r="U31" s="54">
+      <c r="U31" s="48">
         <v>2.9691584999999998</v>
       </c>
       <c r="V31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100.55882510729535</v>
       </c>
-      <c r="W31" s="57">
-        <f t="shared" si="2"/>
+      <c r="W31" s="56">
+        <f t="shared" si="4"/>
         <v>0.28151731058705687</v>
       </c>
       <c r="X31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9526583040642476</v>
       </c>
       <c r="AB31" s="46"/>
@@ -44038,20 +44009,18 @@
       <c r="AI31" s="46"/>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="48">
         <v>100</v>
       </c>
-      <c r="D32" s="54">
-        <v>15999.78</v>
-      </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54">
+      <c r="D32" s="48"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="48">
         <v>14168.8</v>
       </c>
       <c r="G32" s="48">
@@ -44062,43 +44031,41 @@
         <v>89.3</v>
       </c>
       <c r="J32" s="55">
-        <f>100*I32/C32</f>
+        <f t="shared" si="2"/>
         <v>89.3</v>
       </c>
       <c r="K32" s="55"/>
-      <c r="L32" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L32" s="57"/>
       <c r="N32">
-        <f>C32</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
-        <v>-1830.9800000000014</v>
+        <f t="shared" si="5"/>
+        <v>14168.8</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-      <c r="S32" s="54">
+      <c r="S32" s="48">
         <v>89.3</v>
       </c>
-      <c r="T32" s="54">
+      <c r="T32" s="48">
         <v>0.40452899999999997</v>
       </c>
-      <c r="U32" s="54">
+      <c r="U32" s="48">
         <v>3.6371890000000002</v>
       </c>
       <c r="V32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89.3</v>
       </c>
-      <c r="W32" s="57">
-        <f t="shared" si="2"/>
+      <c r="W32" s="56">
+        <f t="shared" si="4"/>
         <v>0.45300000000000001</v>
       </c>
       <c r="X32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0730000000000004</v>
       </c>
       <c r="AB32" s="46">
@@ -44107,11 +44074,11 @@
       </c>
       <c r="AC32" s="46">
         <f>100*(((L33-L34)*0.027)/C33)</f>
-        <v>1.9388350480102698</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="46">
         <f>(1000*(((L33-L34)*0.027)/55.85))/(C33/1000)</f>
-        <v>347.1504114611048</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="46">
         <f>1000000*(X34-X33)/55.85/100</f>
@@ -44123,18 +44090,18 @@
       <c r="AI32" s="46"/>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" s="54"/>
-      <c r="B33" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="48">
         <v>101.27</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="48">
         <v>13467.3</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54">
+      <c r="E33" s="59"/>
+      <c r="F33" s="48">
         <v>13554.4</v>
       </c>
       <c r="G33" s="48">
@@ -44145,49 +44112,46 @@
         <v>83.36</v>
       </c>
       <c r="J33" s="55">
-        <f>100*I33/C33</f>
+        <f t="shared" si="2"/>
         <v>82.314604522563442</v>
       </c>
       <c r="K33" s="55"/>
-      <c r="L33" s="56">
-        <f>(0.001*348.5*55.84)*((C33/1000)/0.027)</f>
-        <v>72.990314992592602</v>
-      </c>
+      <c r="L33" s="57"/>
       <c r="M33">
         <f>(1000*((L33-L34)/55.85)*0.027)/(C33/1000)</f>
-        <v>347.15041146110468</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <f>C33</f>
+        <f t="shared" si="3"/>
         <v>101.27</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87.100000000000364</v>
       </c>
       <c r="P33">
-        <f t="shared" ref="P33" si="7">(O33-N33)/O33</f>
+        <f t="shared" ref="P33" si="9">(O33-N33)/O33</f>
         <v>-0.16268656716417421</v>
       </c>
-      <c r="S33" s="54">
+      <c r="S33" s="48">
         <v>83.36</v>
       </c>
-      <c r="T33" s="54">
+      <c r="T33" s="48">
         <v>0.24257759999999998</v>
       </c>
-      <c r="U33" s="54">
+      <c r="U33" s="48">
         <v>2.3224095999999999</v>
       </c>
       <c r="V33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>96.92155223880556</v>
       </c>
-      <c r="W33" s="57">
-        <f t="shared" si="2"/>
+      <c r="W33" s="56">
+        <f t="shared" si="4"/>
         <v>0.25028241335045032</v>
       </c>
       <c r="X33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3961745827984693</v>
       </c>
       <c r="AB33" s="46"/>
@@ -44200,18 +44164,18 @@
       <c r="AI33" s="46"/>
     </row>
     <row r="34" spans="1:35">
-      <c r="A34" s="54"/>
-      <c r="B34" t="s">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="48">
         <v>100.29</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="48">
         <v>14059.9</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54">
+      <c r="E34" s="59"/>
+      <c r="F34" s="48">
         <v>14153.4</v>
       </c>
       <c r="G34" s="48">
@@ -44222,45 +44186,42 @@
         <v>94.63</v>
       </c>
       <c r="J34" s="55">
-        <f>100*I34/C34</f>
+        <f t="shared" si="2"/>
         <v>94.356366537042575</v>
       </c>
       <c r="K34" s="55"/>
-      <c r="L34" s="56">
-        <f>(0.001*1.3*55.84)*((C34/1000)/0.027)</f>
-        <v>0.26963895111111119</v>
-      </c>
+      <c r="L34" s="57"/>
       <c r="N34">
-        <f>C34</f>
+        <f t="shared" si="3"/>
         <v>100.29</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93.5</v>
       </c>
       <c r="P34">
         <f>(O34-N34)/O34</f>
         <v>-7.2620320855615039E-2</v>
       </c>
-      <c r="S34" s="54">
+      <c r="S34" s="48">
         <v>94.63</v>
       </c>
-      <c r="T34" s="54">
+      <c r="T34" s="48">
         <v>0.28862149999999998</v>
       </c>
-      <c r="U34" s="54">
+      <c r="U34" s="48">
         <v>2.905141</v>
       </c>
       <c r="V34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>101.50206096256684</v>
       </c>
-      <c r="W34" s="57">
-        <f t="shared" si="2"/>
+      <c r="W34" s="56">
+        <f t="shared" si="4"/>
         <v>0.28435038388672845</v>
       </c>
       <c r="X34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8621497656795292</v>
       </c>
       <c r="AB34" s="46"/>
@@ -44273,20 +44234,18 @@
       <c r="AI34" s="46"/>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="48">
         <v>100</v>
       </c>
-      <c r="D35" s="54">
-        <v>15999.78</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54">
+      <c r="D35" s="48"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="48">
         <v>14168.8</v>
       </c>
       <c r="G35" s="48">
@@ -44297,43 +44256,41 @@
         <v>89.3</v>
       </c>
       <c r="J35" s="55">
-        <f>100*I35/C35</f>
+        <f t="shared" si="2"/>
         <v>89.3</v>
       </c>
       <c r="K35" s="55"/>
-      <c r="L35" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L35" s="57"/>
       <c r="N35">
-        <f>C35</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
-        <v>-1830.9800000000014</v>
+        <f t="shared" si="5"/>
+        <v>14168.8</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-      <c r="S35" s="54">
+      <c r="S35" s="48">
         <v>89.3</v>
       </c>
-      <c r="T35" s="54">
+      <c r="T35" s="48">
         <v>0.40452899999999997</v>
       </c>
-      <c r="U35" s="54">
+      <c r="U35" s="48">
         <v>3.6371890000000002</v>
       </c>
       <c r="V35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89.3</v>
       </c>
-      <c r="W35" s="57">
-        <f t="shared" si="2"/>
+      <c r="W35" s="56">
+        <f t="shared" si="4"/>
         <v>0.45300000000000001</v>
       </c>
       <c r="X35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0730000000000004</v>
       </c>
       <c r="AB35" s="46">
@@ -44342,11 +44299,11 @@
       </c>
       <c r="AC35" s="46">
         <f>100*(((L36-L37)*0.027)/C36)</f>
-        <v>22.596174354037768</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="46">
         <f>(1000*(((L36-L37)*0.027)/55.85))/(C36/1000)</f>
-        <v>4045.8682818330831</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="46">
         <f>1000000*(X37-X36)/55.85/100</f>
@@ -44358,18 +44315,18 @@
       <c r="AI35" s="46"/>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" s="54"/>
-      <c r="B36" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="48">
         <v>99.56</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="48">
         <v>14053.7</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54">
+      <c r="E36" s="59"/>
+      <c r="F36" s="48">
         <v>14138.5</v>
       </c>
       <c r="G36" s="48">
@@ -44380,49 +44337,46 @@
         <v>79.739999999999995</v>
       </c>
       <c r="J36" s="55">
-        <f>100*I36/C36</f>
+        <f t="shared" si="2"/>
         <v>80.092406588991551</v>
       </c>
       <c r="K36" s="55"/>
-      <c r="L36" s="56">
-        <f>(0.001*4048.3*55.84)*((C36/1000)/0.027)</f>
-        <v>833.56452178962968</v>
-      </c>
+      <c r="L36" s="57"/>
       <c r="M36">
         <f>(1000*((L36-L37)/55.85)*0.027)/(C36/1000)</f>
-        <v>4045.8682818330831</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <f>C36</f>
+        <f t="shared" si="3"/>
         <v>99.56</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.799999999999272</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P39" si="8">(O36-N36)/O36</f>
+        <f t="shared" ref="P36:P39" si="10">(O36-N36)/O36</f>
         <v>-0.174056603773595</v>
       </c>
-      <c r="S36" s="54">
+      <c r="S36" s="48">
         <v>79.739999999999995</v>
       </c>
-      <c r="T36" s="54">
+      <c r="T36" s="48">
         <v>0.22247459999999999</v>
       </c>
-      <c r="U36" s="54">
+      <c r="U36" s="48">
         <v>1.8898380000000001</v>
       </c>
       <c r="V36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>93.619273584906466</v>
       </c>
-      <c r="W36" s="57">
-        <f t="shared" si="2"/>
+      <c r="W36" s="56">
+        <f t="shared" si="4"/>
         <v>0.23763760546403975</v>
       </c>
       <c r="X36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0186420249095849</v>
       </c>
       <c r="AB36" s="46"/>
@@ -44435,18 +44389,18 @@
       <c r="AI36" s="46"/>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="54"/>
-      <c r="B37" t="s">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="48">
         <v>99.98</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="48">
         <v>14024.5</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54">
+      <c r="E37" s="59"/>
+      <c r="F37" s="48">
         <v>14122.6</v>
       </c>
       <c r="G37" s="48">
@@ -44457,45 +44411,42 @@
         <v>95.57</v>
       </c>
       <c r="J37" s="55">
-        <f>100*I37/C37</f>
+        <f t="shared" si="2"/>
         <v>95.589117823564706</v>
       </c>
       <c r="K37" s="55"/>
-      <c r="L37" s="56">
-        <f>(0.001*1.7*55.84)*((C37/1000)/0.027)</f>
-        <v>0.35151486814814814</v>
-      </c>
+      <c r="L37" s="57"/>
       <c r="N37">
-        <f>C37</f>
+        <f t="shared" si="3"/>
         <v>99.98</v>
       </c>
       <c r="O37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98.100000000000364</v>
       </c>
       <c r="P37">
+        <f t="shared" si="10"/>
+        <v>-1.9164118246683313E-2</v>
+      </c>
+      <c r="S37" s="48">
+        <v>95.57</v>
+      </c>
+      <c r="T37" s="48">
+        <v>0.30773539999999999</v>
+      </c>
+      <c r="U37" s="48">
+        <v>3.1146262999999998</v>
+      </c>
+      <c r="V37">
         <f t="shared" si="8"/>
-        <v>-1.9164118246683313E-2</v>
-      </c>
-      <c r="S37" s="54">
-        <v>95.57</v>
-      </c>
-      <c r="T37" s="54">
-        <v>0.30773539999999999</v>
-      </c>
-      <c r="U37" s="54">
-        <v>3.1146262999999998</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="6"/>
         <v>97.401514780835512</v>
       </c>
-      <c r="W37" s="57">
-        <f t="shared" si="2"/>
+      <c r="W37" s="56">
+        <f t="shared" si="4"/>
         <v>0.31594518903780877</v>
       </c>
       <c r="X37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1977185437087536</v>
       </c>
       <c r="AB37" s="46"/>
@@ -44508,20 +44459,18 @@
       <c r="AI37" s="46"/>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="48">
         <v>99.85</v>
       </c>
-      <c r="D38" s="54">
-        <v>16000.24</v>
-      </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54">
+      <c r="D38" s="48"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="48">
         <v>14156.9</v>
       </c>
       <c r="G38" s="48">
@@ -44532,43 +44481,41 @@
         <v>87.64</v>
       </c>
       <c r="J38" s="55">
-        <f>100*I38/C38</f>
+        <f t="shared" si="2"/>
         <v>87.771657486229344</v>
       </c>
       <c r="K38" s="55"/>
-      <c r="L38" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L38" s="57"/>
       <c r="N38">
-        <f>C38</f>
+        <f t="shared" si="3"/>
         <v>99.85</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
-        <v>-1843.3400000000001</v>
+        <f t="shared" si="5"/>
+        <v>14156.9</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="S38" s="54">
+      <c r="S38" s="48">
         <v>87.64</v>
       </c>
-      <c r="T38" s="54">
+      <c r="T38" s="48">
         <v>0.39700920000000006</v>
       </c>
-      <c r="U38" s="54">
+      <c r="U38" s="48">
         <v>3.7842951999999999</v>
       </c>
       <c r="V38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>87.64</v>
       </c>
-      <c r="W38" s="57">
-        <f t="shared" si="2"/>
+      <c r="W38" s="56">
+        <f t="shared" si="4"/>
         <v>0.45300000000000001</v>
       </c>
       <c r="X38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AB38" s="46">
@@ -44577,11 +44524,11 @@
       </c>
       <c r="AC38" s="46">
         <f>100*(((L39-L40)*0.027)/C39)</f>
-        <v>1.9387951098121088</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="46">
         <f>(1000*(((L39-L40)*0.027)/55.85))/(C39/1000)</f>
-        <v>347.14326048560594</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="46">
         <f>1000000*(X40-X39)/55.85/100</f>
@@ -44593,18 +44540,18 @@
       <c r="AI38" s="46"/>
     </row>
     <row r="39" spans="1:35">
-      <c r="A39" s="54"/>
-      <c r="B39" t="s">
+      <c r="A39" s="48"/>
+      <c r="B39" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="48">
         <v>100.59</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="48">
         <v>13436.3</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54">
+      <c r="E39" s="59"/>
+      <c r="F39" s="48">
         <v>13523</v>
       </c>
       <c r="G39" s="48">
@@ -44615,49 +44562,46 @@
         <v>87.23</v>
       </c>
       <c r="J39" s="55">
-        <f>100*I39/C39</f>
+        <f t="shared" si="2"/>
         <v>86.718361666169599</v>
       </c>
       <c r="K39" s="55"/>
-      <c r="L39" s="56">
-        <f>(0.001*348.5*55.84)*((C39/1000)/0.027)</f>
-        <v>72.500205244444459</v>
-      </c>
+      <c r="L39" s="57"/>
       <c r="M39">
         <f>(1000*((L39-L40)/55.85)*0.027)/(C39/1000)</f>
-        <v>347.14326048560588</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <f>C39</f>
+        <f t="shared" si="3"/>
         <v>100.59</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86.700000000000728</v>
       </c>
       <c r="P39">
+        <f t="shared" si="10"/>
+        <v>-0.1602076124567377</v>
+      </c>
+      <c r="S39" s="48">
+        <v>87.23</v>
+      </c>
+      <c r="T39" s="48">
+        <v>0.28698670000000004</v>
+      </c>
+      <c r="U39" s="48">
+        <v>2.712853</v>
+      </c>
+      <c r="V39">
         <f t="shared" si="8"/>
-        <v>-0.1602076124567377</v>
-      </c>
-      <c r="S39" s="54">
-        <v>87.23</v>
-      </c>
-      <c r="T39" s="54">
-        <v>0.28698670000000004</v>
-      </c>
-      <c r="U39" s="54">
-        <v>2.712853</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="6"/>
         <v>101.20491003460123</v>
       </c>
-      <c r="W39" s="57">
-        <f t="shared" si="2"/>
+      <c r="W39" s="56">
+        <f t="shared" si="4"/>
         <v>0.28356993736952224</v>
       </c>
       <c r="X39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6805547271100734</v>
       </c>
       <c r="AB39" s="46"/>
@@ -44670,18 +44614,18 @@
       <c r="AI39" s="46"/>
     </row>
     <row r="40" spans="1:35">
-      <c r="A40" s="54"/>
-      <c r="B40" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="48">
         <v>100.17</v>
       </c>
-      <c r="D40" s="54">
+      <c r="D40" s="48">
         <v>13468.1</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54">
+      <c r="E40" s="59"/>
+      <c r="F40" s="48">
         <v>13560.8</v>
       </c>
       <c r="G40" s="48">
@@ -44692,45 +44636,42 @@
         <v>96.15</v>
       </c>
       <c r="J40" s="55">
-        <f>100*I40/C40</f>
+        <f t="shared" si="2"/>
         <v>95.98682240191674</v>
       </c>
       <c r="K40" s="55"/>
-      <c r="L40" s="56">
-        <f>(0.001*1.3*55.84)*((C40/1000)/0.027)</f>
-        <v>0.26931632000000005</v>
-      </c>
+      <c r="L40" s="57"/>
       <c r="N40">
-        <f>C40</f>
+        <f t="shared" si="3"/>
         <v>100.17</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92.699999999998909</v>
       </c>
       <c r="P40">
         <f>(O40-N40)/O40</f>
         <v>-8.05825242718574E-2</v>
       </c>
-      <c r="S40" s="54">
+      <c r="S40" s="48">
         <v>96.15</v>
       </c>
-      <c r="T40" s="54">
+      <c r="T40" s="48">
         <v>0.42113700000000004</v>
       </c>
-      <c r="U40" s="54">
+      <c r="U40" s="48">
         <v>3.3315975000000004</v>
       </c>
       <c r="V40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>103.8980097087391</v>
       </c>
-      <c r="W40" s="57">
-        <f t="shared" si="2"/>
+      <c r="W40" s="56">
+        <f t="shared" si="4"/>
         <v>0.40533692722371489</v>
       </c>
       <c r="X40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.206603773584868</v>
       </c>
       <c r="AB40" s="46"/>
@@ -44743,20 +44684,18 @@
       <c r="AI40" s="46"/>
     </row>
     <row r="41" spans="1:35">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="48">
         <v>99.85</v>
       </c>
-      <c r="D41" s="54">
-        <v>16000.24</v>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54">
+      <c r="D41" s="48"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="48">
         <v>14156.9</v>
       </c>
       <c r="G41" s="48">
@@ -44767,43 +44706,41 @@
         <v>87.64</v>
       </c>
       <c r="J41" s="55">
-        <f>100*I41/C41</f>
+        <f t="shared" si="2"/>
         <v>87.771657486229344</v>
       </c>
       <c r="K41" s="55"/>
-      <c r="L41" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L41" s="57"/>
       <c r="N41">
-        <f>C41</f>
+        <f t="shared" si="3"/>
         <v>99.85</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
-        <v>-1843.3400000000001</v>
+        <f t="shared" si="5"/>
+        <v>14156.9</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-      <c r="S41" s="54">
+      <c r="S41" s="48">
         <v>87.64</v>
       </c>
-      <c r="T41" s="54">
+      <c r="T41" s="48">
         <v>0.39700920000000006</v>
       </c>
-      <c r="U41" s="54">
+      <c r="U41" s="48">
         <v>3.7842951999999999</v>
       </c>
       <c r="V41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>87.64</v>
       </c>
-      <c r="W41" s="57">
-        <f t="shared" si="2"/>
+      <c r="W41" s="56">
+        <f t="shared" si="4"/>
         <v>0.45300000000000001</v>
       </c>
       <c r="X41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AB41" s="46">
@@ -44812,11 +44749,11 @@
       </c>
       <c r="AC41" s="46">
         <f>100*(((L42-L43)*0.027)/C42)</f>
-        <v>22.596262769747234</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="46">
         <f>(1000*(((L42-L43)*0.027)/55.85))/(C42/1000)</f>
-        <v>4045.8841127568908</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="46">
         <f>1000000*(X43-X42)/55.85/100</f>
@@ -44828,18 +44765,18 @@
       <c r="AI41" s="46"/>
     </row>
     <row r="42" spans="1:35">
-      <c r="A42" s="54"/>
-      <c r="B42" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="48">
         <v>100.09</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D42" s="48">
         <v>14119.4</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54">
+      <c r="E42" s="59"/>
+      <c r="F42" s="48">
         <v>14198.1</v>
       </c>
       <c r="G42" s="48">
@@ -44850,49 +44787,46 @@
         <v>75.209999999999994</v>
       </c>
       <c r="J42" s="55">
-        <f>100*I42/C42</f>
+        <f t="shared" si="2"/>
         <v>75.142371865321195</v>
       </c>
       <c r="K42" s="55"/>
-      <c r="L42" s="56">
-        <f>(0.001*4048.3*55.84)*((C42/1000)/0.027)</f>
-        <v>838.00193838814835</v>
-      </c>
+      <c r="L42" s="57"/>
       <c r="M42">
         <f>(1000*((L42-L43)/55.85)*0.027)/(C42/1000)</f>
-        <v>4045.8841127568908</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <f>C42</f>
+        <f t="shared" si="3"/>
         <v>100.09</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78.700000000000728</v>
       </c>
       <c r="P42">
-        <f t="shared" ref="P42:P45" si="9">(O42-N42)/O42</f>
+        <f t="shared" ref="P42:P45" si="11">(O42-N42)/O42</f>
         <v>-0.27179161372298699</v>
       </c>
-      <c r="S42" s="54">
+      <c r="S42" s="48">
         <v>75.209999999999994</v>
       </c>
-      <c r="T42" s="54">
+      <c r="T42" s="48">
         <v>0.23164679999999996</v>
       </c>
-      <c r="U42" s="54">
+      <c r="U42" s="48">
         <v>2.0404472999999999</v>
       </c>
       <c r="V42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>95.651447268105841</v>
       </c>
-      <c r="W42" s="57">
-        <f t="shared" si="2"/>
+      <c r="W42" s="56">
+        <f t="shared" si="4"/>
         <v>0.24217803976421445</v>
       </c>
       <c r="X42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1332111100010187</v>
       </c>
       <c r="AB42" s="46"/>
@@ -44905,18 +44839,18 @@
       <c r="AI42" s="46"/>
     </row>
     <row r="43" spans="1:35">
-      <c r="A43" s="54"/>
-      <c r="B43" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="48">
         <v>99.58</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="48">
         <v>13545.3</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54">
+      <c r="E43" s="59"/>
+      <c r="F43" s="48">
         <v>13642.2</v>
       </c>
       <c r="G43" s="48">
@@ -44927,45 +44861,42 @@
         <v>95.79</v>
       </c>
       <c r="J43" s="55">
-        <f>100*I43/C43</f>
+        <f t="shared" si="2"/>
         <v>96.194014862422179</v>
       </c>
       <c r="K43" s="55"/>
-      <c r="L43" s="56">
-        <f>(0.001*1.7*55.84)*((C43/1000)/0.027)</f>
-        <v>0.35010852740740744</v>
-      </c>
+      <c r="L43" s="57"/>
       <c r="N43">
-        <f>C43</f>
+        <f t="shared" si="3"/>
         <v>99.58</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96.900000000001455</v>
       </c>
       <c r="P43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.765737874095462E-2</v>
       </c>
-      <c r="S43" s="54">
+      <c r="S43" s="48">
         <v>95.79</v>
       </c>
-      <c r="T43" s="54">
+      <c r="T43" s="48">
         <v>0.40327590000000002</v>
       </c>
-      <c r="U43" s="54">
+      <c r="U43" s="48">
         <v>3.4005450000000002</v>
       </c>
       <c r="V43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>98.439300309596049</v>
       </c>
-      <c r="W43" s="57">
-        <f t="shared" si="2"/>
+      <c r="W43" s="56">
+        <f t="shared" si="4"/>
         <v>0.40966961237196836</v>
       </c>
       <c r="X43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4544587266519899</v>
       </c>
       <c r="AB43" s="46"/>
@@ -44978,67 +44909,63 @@
       <c r="AI43" s="46"/>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="48">
         <v>99.38</v>
       </c>
-      <c r="D44" s="54">
-        <v>16004.46</v>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54">
+      <c r="D44" s="48"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="48">
         <v>14149</v>
       </c>
       <c r="G44" s="48">
-        <f t="shared" ref="G44:G49" si="10">E44</f>
+        <f t="shared" ref="G44:G49" si="12">E44</f>
         <v>0</v>
       </c>
       <c r="I44">
         <v>87.5</v>
       </c>
       <c r="J44" s="55">
-        <f>100*I44/C44</f>
+        <f t="shared" si="2"/>
         <v>88.045884483799554</v>
       </c>
       <c r="K44" s="55"/>
-      <c r="L44" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L44" s="57"/>
       <c r="N44">
-        <f>C44</f>
+        <f t="shared" si="3"/>
         <v>99.38</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
-        <v>-1855.4599999999991</v>
+        <f t="shared" si="5"/>
+        <v>14149</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-      <c r="S44" s="54">
+      <c r="S44" s="48">
         <v>87.5</v>
       </c>
-      <c r="T44" s="54">
+      <c r="T44" s="48">
         <v>0.43049999999999999</v>
       </c>
-      <c r="U44" s="54">
+      <c r="U44" s="48">
         <v>3.8027500000000005</v>
       </c>
       <c r="V44">
-        <f t="shared" ref="V44:V49" si="11">(S44-(S44*P44))</f>
+        <f t="shared" ref="V44:V49" si="13">(S44-(S44*P44))</f>
         <v>87.5</v>
       </c>
-      <c r="W44" s="57">
-        <f t="shared" ref="W44:W49" si="12">100*T44/V44</f>
+      <c r="W44" s="56">
+        <f t="shared" ref="W44:W49" si="14">100*T44/V44</f>
         <v>0.49199999999999999</v>
       </c>
       <c r="X44">
-        <f t="shared" ref="X44:X49" si="13">100*U44/V44</f>
+        <f t="shared" ref="X44:X49" si="15">100*U44/V44</f>
         <v>4.3460000000000001</v>
       </c>
       <c r="AB44" s="46">
@@ -45047,11 +44974,11 @@
       </c>
       <c r="AC44" s="46">
         <f>100*(((L45-L46)*0.027)/C45)</f>
-        <v>1.9386743699417321</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="46">
         <f>(1000*(((L45-L46)*0.027)/55.85))/(C45/1000)</f>
-        <v>347.12164188750796</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="46">
         <f>1000000*(X46-X45)/55.85/100</f>
@@ -45063,71 +44990,68 @@
       <c r="AI44" s="46"/>
     </row>
     <row r="45" spans="1:35">
-      <c r="A45" s="54"/>
-      <c r="B45" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="48">
         <v>99.54</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D45" s="48">
         <v>13483.1</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54">
+      <c r="E45" s="59"/>
+      <c r="F45" s="48">
         <v>13569.1</v>
       </c>
       <c r="G45" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I45">
         <v>84.92</v>
       </c>
       <c r="J45" s="55">
-        <f>100*I45/C45</f>
+        <f t="shared" si="2"/>
         <v>85.312437211171385</v>
       </c>
       <c r="K45" s="55"/>
-      <c r="L45" s="56">
-        <f>(0.001*348.5*55.84)*((C45/1000)/0.027)</f>
-        <v>71.74341813333335</v>
-      </c>
+      <c r="L45" s="57"/>
       <c r="M45">
         <f>(1000*((L45-L46)/55.85)*0.027)/(C45/1000)</f>
-        <v>347.12164188750802</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <f>C45</f>
+        <f t="shared" si="3"/>
         <v>99.54</v>
       </c>
       <c r="O45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="P45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.15744186046511635</v>
       </c>
-      <c r="S45" s="54">
+      <c r="S45" s="48">
         <v>84.92</v>
       </c>
-      <c r="T45" s="54">
+      <c r="T45" s="48">
         <v>0.29127560000000002</v>
       </c>
-      <c r="U45" s="54">
+      <c r="U45" s="48">
         <v>2.7480112000000001</v>
       </c>
       <c r="V45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>98.289962790697686</v>
       </c>
-      <c r="W45" s="57">
-        <f t="shared" si="12"/>
+      <c r="W45" s="56">
+        <f t="shared" si="14"/>
         <v>0.2963431786216596</v>
       </c>
       <c r="X45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.795820775567611</v>
       </c>
       <c r="AB45" s="46"/>
@@ -45140,67 +45064,64 @@
       <c r="AI45" s="46"/>
     </row>
     <row r="46" spans="1:35">
-      <c r="A46" s="54"/>
-      <c r="B46" t="s">
+      <c r="A46" s="48"/>
+      <c r="B46" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="48">
         <v>100.78</v>
       </c>
-      <c r="D46" s="54">
+      <c r="D46" s="48">
         <v>13479.9</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54">
+      <c r="E46" s="59"/>
+      <c r="F46" s="48">
         <v>13575.9</v>
       </c>
       <c r="G46" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I46">
         <v>95.14</v>
       </c>
       <c r="J46" s="55">
-        <f>100*I46/C46</f>
+        <f t="shared" si="2"/>
         <v>94.40365151815837</v>
       </c>
       <c r="K46" s="55"/>
-      <c r="L46" s="56">
-        <f>(0.001*1.3*55.84)*((C46/1000)/0.027)</f>
-        <v>0.2709563614814815</v>
-      </c>
+      <c r="L46" s="57"/>
       <c r="N46">
-        <f>C46</f>
+        <f t="shared" si="3"/>
         <v>100.78</v>
       </c>
       <c r="O46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="P46">
         <f>(O46-N46)/O46</f>
         <v>-4.9791666666666679E-2</v>
       </c>
-      <c r="S46" s="54">
+      <c r="S46" s="48">
         <v>95.14</v>
       </c>
-      <c r="T46" s="54">
+      <c r="T46" s="48">
         <v>0.41861600000000004</v>
       </c>
-      <c r="U46" s="54">
+      <c r="U46" s="48">
         <v>3.6267367999999998</v>
       </c>
       <c r="V46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>99.877179166666664</v>
       </c>
-      <c r="W46" s="57">
-        <f t="shared" si="12"/>
+      <c r="W46" s="56">
+        <f t="shared" si="14"/>
         <v>0.41913077991665015</v>
       </c>
       <c r="X46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.6311966660051596</v>
       </c>
       <c r="AB46" s="46"/>
@@ -45213,67 +45134,63 @@
       <c r="AI46" s="46"/>
     </row>
     <row r="47" spans="1:35">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="48">
         <v>99.38</v>
       </c>
-      <c r="D47" s="54">
-        <v>16004.46</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54">
+      <c r="D47" s="48"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="48">
         <v>14149</v>
       </c>
       <c r="G47" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I47">
         <v>87.5</v>
       </c>
       <c r="J47" s="55">
-        <f>100*I47/C47</f>
+        <f t="shared" si="2"/>
         <v>88.045884483799554</v>
       </c>
       <c r="K47" s="55"/>
-      <c r="L47" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L47" s="57"/>
       <c r="N47">
-        <f>C47</f>
+        <f t="shared" si="3"/>
         <v>99.38</v>
       </c>
       <c r="O47">
-        <f t="shared" si="3"/>
-        <v>-1855.4599999999991</v>
+        <f t="shared" si="5"/>
+        <v>14149</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-      <c r="S47" s="54">
+      <c r="S47" s="48">
         <v>87.5</v>
       </c>
-      <c r="T47" s="54">
+      <c r="T47" s="48">
         <v>0.43049999999999999</v>
       </c>
-      <c r="U47" s="54">
+      <c r="U47" s="48">
         <v>3.8027500000000005</v>
       </c>
       <c r="V47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>87.5</v>
       </c>
-      <c r="W47" s="57">
-        <f t="shared" si="12"/>
+      <c r="W47" s="56">
+        <f t="shared" si="14"/>
         <v>0.49199999999999999</v>
       </c>
       <c r="X47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.3460000000000001</v>
       </c>
       <c r="AB47" s="46">
@@ -45282,11 +45199,11 @@
       </c>
       <c r="AC47" s="46">
         <f>100*(((L48-L49)*0.027)/C48)</f>
-        <v>22.596246814904092</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="46">
         <f>(1000*(((L48-L49)*0.027)/55.85))/(C48/1000)</f>
-        <v>4045.8812560257993</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="46">
         <f>1000000*(X49-X48)/55.85/100</f>
@@ -45298,71 +45215,68 @@
       <c r="AI47" s="46"/>
     </row>
     <row r="48" spans="1:35">
-      <c r="A48" s="54"/>
-      <c r="B48" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="54">
+      <c r="C48" s="48">
         <v>99.57</v>
       </c>
-      <c r="D48" s="54">
+      <c r="D48" s="48">
         <v>14080.8</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54">
+      <c r="E48" s="59"/>
+      <c r="F48" s="48">
         <v>14160.5</v>
       </c>
       <c r="G48" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I48">
         <v>73.489999999999995</v>
       </c>
       <c r="J48" s="55">
-        <f>100*I48/C48</f>
+        <f t="shared" si="2"/>
         <v>73.807371698302703</v>
       </c>
       <c r="K48" s="55"/>
-      <c r="L48" s="56">
-        <f>(0.001*4048.3*55.84)*((C48/1000)/0.027)</f>
-        <v>833.64824663111119</v>
-      </c>
+      <c r="L48" s="57"/>
       <c r="M48">
         <f>(1000*((L48-L49)/55.85)*0.027)/(C48/1000)</f>
-        <v>4045.8812560257993</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <f>C48</f>
+        <f t="shared" si="3"/>
         <v>99.57</v>
       </c>
       <c r="O48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79.700000000000728</v>
       </c>
       <c r="P48">
-        <f t="shared" ref="P48:P49" si="14">(O48-N48)/O48</f>
+        <f t="shared" ref="P48:P49" si="16">(O48-N48)/O48</f>
         <v>-0.24930991217062842</v>
       </c>
-      <c r="S48" s="54">
+      <c r="S48" s="48">
         <v>73.489999999999995</v>
       </c>
-      <c r="T48" s="54">
+      <c r="T48" s="48">
         <v>0.19621829999999998</v>
       </c>
-      <c r="U48" s="54">
+      <c r="U48" s="48">
         <v>2.0547803999999998</v>
       </c>
       <c r="V48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>91.811785445419474</v>
       </c>
-      <c r="W48" s="57">
-        <f t="shared" si="12"/>
+      <c r="W48" s="56">
+        <f t="shared" si="14"/>
         <v>0.213717987345588</v>
       </c>
       <c r="X48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.2380355528773932</v>
       </c>
       <c r="AB48" s="46"/>
@@ -45375,67 +45289,64 @@
       <c r="AI48" s="46"/>
     </row>
     <row r="49" spans="1:35">
-      <c r="A49" s="54"/>
-      <c r="B49" t="s">
+      <c r="A49" s="48"/>
+      <c r="B49" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="54">
+      <c r="C49" s="48">
         <v>99.23</v>
       </c>
-      <c r="D49" s="54">
+      <c r="D49" s="48">
         <v>14046</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54">
+      <c r="E49" s="59"/>
+      <c r="F49" s="48">
         <v>14141.9</v>
       </c>
       <c r="G49" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I49">
         <v>94.14</v>
       </c>
       <c r="J49" s="55">
-        <f>100*I49/C49</f>
+        <f t="shared" si="2"/>
         <v>94.870502872115281</v>
       </c>
       <c r="K49" s="55"/>
-      <c r="L49" s="56">
-        <f>(0.001*1.7*55.84)*((C49/1000)/0.027)</f>
-        <v>0.34887797925925929</v>
-      </c>
+      <c r="L49" s="57"/>
       <c r="N49">
-        <f>C49</f>
+        <f t="shared" si="3"/>
         <v>99.23</v>
       </c>
       <c r="O49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.899999999999636</v>
       </c>
       <c r="P49">
+        <f t="shared" si="16"/>
+        <v>-3.4723670490097815E-2</v>
+      </c>
+      <c r="S49" s="48">
+        <v>94.14</v>
+      </c>
+      <c r="T49" s="48">
+        <v>0.35396639999999996</v>
+      </c>
+      <c r="U49" s="48">
+        <v>3.3269076000000002</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="13"/>
+        <v>97.408886339937808</v>
+      </c>
+      <c r="W49" s="56">
         <f t="shared" si="14"/>
-        <v>-3.4723670490097815E-2</v>
-      </c>
-      <c r="S49" s="54">
-        <v>94.14</v>
-      </c>
-      <c r="T49" s="54">
-        <v>0.35396639999999996</v>
-      </c>
-      <c r="U49" s="54">
-        <v>3.3269076000000002</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="11"/>
-        <v>97.408886339937808</v>
-      </c>
-      <c r="W49" s="57">
-        <f t="shared" si="12"/>
         <v>0.36338204172125221</v>
       </c>
       <c r="X49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.4154046155396425</v>
       </c>
       <c r="AB49" s="46"/>
@@ -45447,85 +45358,100 @@
       <c r="AH49" s="46"/>
       <c r="AI49" s="46"/>
     </row>
+    <row r="50" spans="1:35">
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="L50" s="48"/>
+    </row>
+    <row r="51" spans="1:35">
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="L51" s="48"/>
+    </row>
     <row r="52" spans="1:35">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C52" s="54">
-        <v>100</v>
-      </c>
-      <c r="D52" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54">
+      <c r="C52" s="48">
+        <v>99.28</v>
+      </c>
+      <c r="D52" s="48">
+        <v>13512.6</v>
+      </c>
+      <c r="E52" s="59"/>
+      <c r="F52" s="48">
         <v>14143.5</v>
       </c>
       <c r="G52" s="48">
-        <f t="shared" ref="G52:G66" si="15">E52</f>
+        <f t="shared" ref="G52:G66" si="17">E52</f>
         <v>0</v>
       </c>
       <c r="I52">
         <v>88.76</v>
       </c>
       <c r="J52" s="55">
-        <f>100*I52/C52</f>
-        <v>88.76</v>
+        <f t="shared" ref="J52:J83" si="18">100*I52/C52</f>
+        <v>89.403706688154713</v>
       </c>
       <c r="K52" s="55"/>
-      <c r="L52" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L52" s="57"/>
       <c r="N52">
-        <f>C52</f>
-        <v>100</v>
+        <f t="shared" ref="N52:N83" si="19">C52</f>
+        <v>99.28</v>
       </c>
       <c r="O52">
         <v>88.76</v>
       </c>
       <c r="P52">
-        <f t="shared" ref="P52:P53" si="16">(O52-N52)/O52</f>
-        <v>-0.12663361874718335</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>88.76</v>
       </c>
-      <c r="T52" s="54">
+      <c r="T52" s="48">
         <v>0.53699800000000009</v>
       </c>
-      <c r="U52" s="54">
+      <c r="U52" s="48">
         <v>5.1711575999999999</v>
       </c>
       <c r="V52">
-        <f t="shared" ref="V52:V66" si="17">(S52-(S52*P52))</f>
-        <v>100</v>
-      </c>
-      <c r="W52" s="57">
-        <f t="shared" ref="W52:W66" si="18">100*T52/V52</f>
-        <v>0.53699800000000009</v>
+        <f t="shared" ref="V52:V66" si="20">(S52-(S52*P52))</f>
+        <v>88.76</v>
+      </c>
+      <c r="W52" s="56">
+        <f t="shared" ref="W52:W66" si="21">100*T52/V52</f>
+        <v>0.60500000000000009</v>
       </c>
       <c r="X52">
-        <f t="shared" ref="X52:X66" si="19">100*U52/V52</f>
-        <v>5.1711575999999999</v>
+        <f t="shared" ref="X52:X66" si="22">100*U52/V52</f>
+        <v>5.8259999999999996</v>
       </c>
       <c r="AB52" s="46">
         <f>100*(X54-X53)/X52</f>
-        <v>22.465863349436486</v>
+        <v>19.365651000584393</v>
       </c>
       <c r="AC52" s="46">
         <f>100*(((L53-L54)*0.027)/C53)</f>
-        <v>1.9387648000000008</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="46">
         <f>(1000*(((L53-L54)*0.027)/55.85))/(C53/1000)</f>
-        <v>347.13783348254259</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="46">
         <f>1000000*(X54-X53)/55.85/100</f>
-        <v>208.01167412712613</v>
+        <v>202.01303980197792</v>
       </c>
       <c r="AF52" s="46"/>
       <c r="AG52" s="46"/>
@@ -45533,71 +45459,66 @@
       <c r="AI52" s="46"/>
     </row>
     <row r="53" spans="1:35">
-      <c r="A53" s="54"/>
-      <c r="B53" t="s">
+      <c r="A53" s="48"/>
+      <c r="B53" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="54">
-        <v>100</v>
-      </c>
-      <c r="D53" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54">
+      <c r="C53" s="48">
+        <v>98.96</v>
+      </c>
+      <c r="D53" s="48"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="48">
         <v>13615.199999999999</v>
       </c>
       <c r="G53" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I53">
         <v>81.27</v>
       </c>
       <c r="J53" s="55">
-        <f>100*I53/C53</f>
-        <v>81.27</v>
+        <f t="shared" si="18"/>
+        <v>82.124090541632995</v>
       </c>
       <c r="K53" s="55"/>
-      <c r="L53" s="56">
-        <f>(0.001*348.5*55.84)*((C53/1000)/0.027)</f>
-        <v>72.074962962962985</v>
-      </c>
+      <c r="L53" s="57"/>
       <c r="M53">
         <f>(1000*((L53-L54)/55.85)*0.027)/(C53/1000)</f>
-        <v>347.13783348254265</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <f>C53</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>98.96</v>
       </c>
       <c r="O53">
         <v>81.27</v>
       </c>
       <c r="P53">
-        <f t="shared" si="16"/>
-        <v>-0.23046634674541658</v>
+        <f t="shared" ref="P52:P53" si="23">(O53-N53)/O53</f>
+        <v>-0.21766949673926417</v>
       </c>
       <c r="S53">
         <v>81.27</v>
       </c>
-      <c r="T53" s="54">
+      <c r="T53" s="48">
         <v>0.36246420000000001</v>
       </c>
-      <c r="U53" s="54">
+      <c r="U53" s="48">
         <v>3.2296697999999999</v>
       </c>
       <c r="V53">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="W53" s="57">
-        <f t="shared" si="18"/>
-        <v>0.36246420000000001</v>
+        <f t="shared" si="20"/>
+        <v>98.96</v>
+      </c>
+      <c r="W53" s="56">
+        <f t="shared" si="21"/>
+        <v>0.36627344381568311</v>
       </c>
       <c r="X53">
-        <f t="shared" si="19"/>
-        <v>3.2296697999999999</v>
+        <f t="shared" si="22"/>
+        <v>3.2636113581244945</v>
       </c>
       <c r="AB53" s="46"/>
       <c r="AC53" s="46"/>
@@ -45609,67 +45530,62 @@
       <c r="AI53" s="46"/>
     </row>
     <row r="54" spans="1:35">
-      <c r="A54" s="54"/>
-      <c r="B54" t="s">
+      <c r="A54" s="48"/>
+      <c r="B54" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="54">
-        <v>100</v>
-      </c>
-      <c r="D54" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54">
+      <c r="C54" s="48">
+        <v>99.99</v>
+      </c>
+      <c r="D54" s="48"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="48">
         <v>13559.6</v>
       </c>
       <c r="G54" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I54">
         <v>92.94</v>
       </c>
       <c r="J54" s="55">
-        <f>100*I54/C54</f>
-        <v>92.94</v>
+        <f t="shared" si="18"/>
+        <v>92.94929492949295</v>
       </c>
       <c r="K54" s="55"/>
-      <c r="L54" s="56">
-        <f>(0.001*1.3*55.84)*((C54/1000)/0.027)</f>
-        <v>0.26885925925925935</v>
-      </c>
+      <c r="L54" s="57"/>
       <c r="N54">
-        <f>C54</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.99</v>
       </c>
       <c r="O54">
         <v>92.94</v>
       </c>
       <c r="P54">
         <f>(O54-N54)/O54</f>
-        <v>-7.5962986873251592E-2</v>
+        <v>-7.585539057456421E-2</v>
       </c>
       <c r="S54">
         <v>92.94</v>
       </c>
-      <c r="T54" s="54">
+      <c r="T54" s="48">
         <v>0.42380639999999997</v>
       </c>
-      <c r="U54" s="54">
+      <c r="U54" s="48">
         <v>4.3914149999999994</v>
       </c>
       <c r="V54">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="W54" s="57">
-        <f t="shared" si="18"/>
-        <v>0.42380639999999997</v>
+        <f t="shared" si="20"/>
+        <v>99.99</v>
+      </c>
+      <c r="W54" s="56">
+        <f t="shared" si="21"/>
+        <v>0.42384878487848787</v>
       </c>
       <c r="X54">
-        <f t="shared" si="19"/>
-        <v>4.3914149999999994</v>
+        <f t="shared" si="22"/>
+        <v>4.3918541854185413</v>
       </c>
       <c r="AB54" s="46"/>
       <c r="AC54" s="46"/>
@@ -45681,84 +45597,81 @@
       <c r="AI54" s="46"/>
     </row>
     <row r="55" spans="1:35">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="54">
-        <v>100</v>
-      </c>
-      <c r="D55" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54">
+      <c r="C55" s="48">
+        <v>96.74</v>
+      </c>
+      <c r="D55" s="48">
+        <v>13537.94</v>
+      </c>
+      <c r="E55" s="59"/>
+      <c r="F55" s="48">
         <v>13627</v>
       </c>
       <c r="G55" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I55">
         <v>86.55</v>
       </c>
       <c r="J55" s="55">
-        <f>100*I55/C55</f>
-        <v>86.55</v>
+        <f t="shared" si="18"/>
+        <v>89.466611536076087</v>
       </c>
       <c r="K55" s="55"/>
-      <c r="L55" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L55" s="57"/>
       <c r="N55">
-        <f>C55</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>96.74</v>
       </c>
       <c r="O55">
         <v>86.55</v>
       </c>
       <c r="P55">
-        <f t="shared" ref="P55:P57" si="20">(O55-N55)/O55</f>
-        <v>-0.15540150202195266</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <v>86.55</v>
       </c>
-      <c r="T55" s="54">
+      <c r="T55" s="48">
         <v>0.44659799999999999</v>
       </c>
-      <c r="U55" s="54">
+      <c r="U55" s="48">
         <v>4.0418849999999997</v>
       </c>
       <c r="V55">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="W55" s="57">
-        <f t="shared" si="18"/>
-        <v>0.44659799999999999</v>
+        <f t="shared" si="20"/>
+        <v>86.55</v>
+      </c>
+      <c r="W55" s="56">
+        <f t="shared" si="21"/>
+        <v>0.51600000000000001</v>
       </c>
       <c r="X55">
-        <f t="shared" si="19"/>
-        <v>4.0418849999999997</v>
+        <f t="shared" si="22"/>
+        <v>4.67</v>
       </c>
       <c r="AB55" s="46">
         <f>100*(X57-X56)/X55</f>
-        <v>20.181801313001241</v>
+        <v>16.620390401971548</v>
       </c>
       <c r="AC55" s="46">
         <f>100*(((L56-L57)*0.027)/C56)</f>
-        <v>22.596214400000008</v>
+        <v>0</v>
       </c>
       <c r="AD55" s="46">
         <f>(1000*(((L56-L57)*0.027)/55.85))/(C56/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="46">
         <f>1000000*(X57-X56)/55.85/100</f>
-        <v>146.05643688451212</v>
+        <v>138.97443720180325</v>
       </c>
       <c r="AF55" s="46"/>
       <c r="AG55" s="46"/>
@@ -45766,71 +45679,66 @@
       <c r="AI55" s="46"/>
     </row>
     <row r="56" spans="1:35">
-      <c r="A56" s="54"/>
-      <c r="B56" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="54">
-        <v>100</v>
-      </c>
-      <c r="D56" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54">
+      <c r="C56" s="48">
+        <v>101.69</v>
+      </c>
+      <c r="D56" s="48"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="48">
         <v>13503.9</v>
       </c>
       <c r="G56" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I56">
         <v>83.7</v>
       </c>
       <c r="J56" s="55">
-        <f>100*I56/C56</f>
-        <v>83.7</v>
+        <f t="shared" si="18"/>
+        <v>82.308978267282924</v>
       </c>
       <c r="K56" s="55"/>
-      <c r="L56" s="56">
-        <f>(0.001*4048.3*55.84)*((C56/1000)/0.027)</f>
-        <v>837.24841481481508</v>
-      </c>
+      <c r="L56" s="57"/>
       <c r="M56">
         <f>(1000*((L56-L57)/55.85)*0.027)/(C56/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <f>C56</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>101.69</v>
       </c>
       <c r="O56">
         <v>83.7</v>
       </c>
       <c r="P56">
-        <f t="shared" si="20"/>
-        <v>-0.19474313022700115</v>
+        <f t="shared" ref="P55:P57" si="24">(O56-N56)/O56</f>
+        <v>-0.21493428912783744</v>
       </c>
       <c r="S56">
         <v>83.7</v>
       </c>
-      <c r="T56" s="54">
+      <c r="T56" s="48">
         <v>0.34484399999999998</v>
       </c>
-      <c r="U56" s="54">
+      <c r="U56" s="48">
         <v>2.747871</v>
       </c>
       <c r="V56">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="W56" s="57">
-        <f t="shared" si="18"/>
-        <v>0.34484399999999998</v>
+        <f t="shared" si="20"/>
+        <v>101.69</v>
+      </c>
+      <c r="W56" s="56">
+        <f t="shared" si="21"/>
+        <v>0.33911299046120563</v>
       </c>
       <c r="X56">
-        <f t="shared" si="19"/>
-        <v>2.747871</v>
+        <f t="shared" si="22"/>
+        <v>2.7022037565148982</v>
       </c>
       <c r="AB56" s="46"/>
       <c r="AC56" s="46"/>
@@ -45842,67 +45750,62 @@
       <c r="AI56" s="46"/>
     </row>
     <row r="57" spans="1:35">
-      <c r="A57" s="54"/>
-      <c r="B57" t="s">
+      <c r="A57" s="48"/>
+      <c r="B57" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="54">
-        <v>100</v>
-      </c>
-      <c r="D57" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54">
+      <c r="C57" s="48">
+        <v>102.45</v>
+      </c>
+      <c r="D57" s="48"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="48">
         <v>13647.3</v>
       </c>
       <c r="G57" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I57">
         <v>93.02</v>
       </c>
       <c r="J57" s="55">
-        <f>100*I57/C57</f>
-        <v>93.02</v>
+        <f t="shared" si="18"/>
+        <v>90.795510004880427</v>
       </c>
       <c r="K57" s="55"/>
-      <c r="L57" s="56">
-        <f>(0.001*1.7*55.84)*((C57/1000)/0.027)</f>
-        <v>0.35158518518518522</v>
-      </c>
+      <c r="L57" s="57"/>
       <c r="N57">
-        <f>C57</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>102.45</v>
       </c>
       <c r="O57">
         <v>93.02</v>
       </c>
       <c r="P57">
-        <f t="shared" si="20"/>
-        <v>-7.5037626316921138E-2</v>
+        <f t="shared" si="24"/>
+        <v>-0.10137604816168573</v>
       </c>
       <c r="S57">
         <v>93.02</v>
       </c>
-      <c r="T57" s="54">
+      <c r="T57" s="48">
         <v>0.40277659999999998</v>
       </c>
-      <c r="U57" s="54">
+      <c r="U57" s="48">
         <v>3.5635962000000001</v>
       </c>
       <c r="V57">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="W57" s="57">
-        <f t="shared" si="18"/>
-        <v>0.40277659999999998</v>
+        <f t="shared" si="20"/>
+        <v>102.45</v>
+      </c>
+      <c r="W57" s="56">
+        <f t="shared" si="21"/>
+        <v>0.39314455832113221</v>
       </c>
       <c r="X57">
-        <f t="shared" si="19"/>
-        <v>3.5635962000000001</v>
+        <f t="shared" si="22"/>
+        <v>3.4783759882869694</v>
       </c>
       <c r="AB57" s="46"/>
       <c r="AC57" s="46"/>
@@ -45914,20 +45817,20 @@
       <c r="AI57" s="46"/>
     </row>
     <row r="58" spans="1:35">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="54">
-        <v>100</v>
-      </c>
-      <c r="D58" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54">
+      <c r="C58" s="48">
+        <v>99.81</v>
+      </c>
+      <c r="D58" s="48">
+        <v>13464.91</v>
+      </c>
+      <c r="E58" s="59"/>
+      <c r="F58" s="48">
         <v>13559</v>
       </c>
       <c r="G58" s="48">
@@ -45938,22 +45841,19 @@
         <v>100</v>
       </c>
       <c r="J58" s="55">
-        <f>100*I58/C58</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.19036168720569</v>
       </c>
       <c r="K58" s="55"/>
-      <c r="L58" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L58" s="57"/>
       <c r="N58">
-        <f>C58</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.81</v>
       </c>
       <c r="O58">
         <v>100</v>
       </c>
       <c r="P58">
-        <f>(O58-N58)/O58</f>
         <v>0</v>
       </c>
       <c r="S58">
@@ -45969,7 +45869,7 @@
         <f>(S58-(S58*P58))</f>
         <v>100</v>
       </c>
-      <c r="W58" s="57">
+      <c r="W58" s="56">
         <f>100*T58/V58</f>
         <v>0.5</v>
       </c>
@@ -45979,19 +45879,19 @@
       </c>
       <c r="AB58" s="46">
         <f>100*(X60-X59)/X58</f>
-        <v>0</v>
+        <v>0.33775807326746232</v>
       </c>
       <c r="AC58" s="46">
         <f>100*(((L59-L60)*0.027)/C59)</f>
-        <v>22.596214400000008</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="46">
         <f>(1000*(((L59-L60)*0.027)/55.85))/(C59/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="46">
         <f>1000000*(X60-X59)/55.85/100</f>
-        <v>0</v>
+        <v>3.0237965377570486</v>
       </c>
       <c r="AF58" s="46"/>
       <c r="AG58" s="46"/>
@@ -45999,18 +45899,16 @@
       <c r="AI58" s="46"/>
     </row>
     <row r="59" spans="1:35">
-      <c r="A59" s="54"/>
-      <c r="B59" t="s">
+      <c r="A59" s="48"/>
+      <c r="B59" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="54">
-        <v>100</v>
-      </c>
-      <c r="D59" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54">
+      <c r="C59" s="48">
+        <v>99.01</v>
+      </c>
+      <c r="D59" s="48"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="48">
         <v>13560.800000000001</v>
       </c>
       <c r="G59" s="48">
@@ -46021,28 +45919,25 @@
         <v>100</v>
       </c>
       <c r="J59" s="55">
-        <f>100*I59/C59</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.999899000101</v>
       </c>
       <c r="K59" s="55"/>
-      <c r="L59" s="56">
-        <f>(0.001*4048.3*55.84)*((C59/1000)/0.027)</f>
-        <v>837.24841481481508</v>
-      </c>
+      <c r="L59" s="57"/>
       <c r="M59">
         <f>(1000*((L59-L60)/55.85)*0.027)/(C59/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <f>C59</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.01</v>
       </c>
       <c r="O59">
         <v>100</v>
       </c>
       <c r="P59">
         <f>(O59-N59)/O59</f>
-        <v>0</v>
+        <v>9.8999999999999488E-3</v>
       </c>
       <c r="S59">
         <v>100</v>
@@ -46055,15 +45950,15 @@
       </c>
       <c r="V59">
         <f>(S59-(S59*P59))</f>
-        <v>100</v>
-      </c>
-      <c r="W59" s="57">
+        <v>99.01</v>
+      </c>
+      <c r="W59" s="56">
         <f>100*T59/V59</f>
-        <v>0.5</v>
+        <v>0.50499949500050501</v>
       </c>
       <c r="X59">
         <f>100*U59/V59</f>
-        <v>5</v>
+        <v>5.0499949500050496</v>
       </c>
       <c r="AB59" s="46"/>
       <c r="AC59" s="46"/>
@@ -46075,18 +45970,16 @@
       <c r="AI59" s="46"/>
     </row>
     <row r="60" spans="1:35">
-      <c r="A60" s="54"/>
-      <c r="B60" t="s">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="54">
-        <v>100</v>
-      </c>
-      <c r="D60" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54">
+      <c r="C60" s="48">
+        <v>98.68</v>
+      </c>
+      <c r="D60" s="48"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="48">
         <v>13575.900000000001</v>
       </c>
       <c r="G60" s="48">
@@ -46097,24 +45990,21 @@
         <v>100</v>
       </c>
       <c r="J60" s="55">
-        <f>100*I60/C60</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>101.33765707336846</v>
       </c>
       <c r="K60" s="55"/>
-      <c r="L60" s="56">
-        <f>(0.001*1.7*55.84)*((C60/1000)/0.027)</f>
-        <v>0.35158518518518522</v>
-      </c>
+      <c r="L60" s="57"/>
       <c r="N60">
-        <f>C60</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>98.68</v>
       </c>
       <c r="O60">
         <v>100</v>
       </c>
       <c r="P60">
         <f>(O60-N60)/O60</f>
-        <v>0</v>
+        <v>1.3199999999999932E-2</v>
       </c>
       <c r="S60">
         <v>100</v>
@@ -46127,15 +46017,15 @@
       </c>
       <c r="V60">
         <f>(S60-(S60*P60))</f>
-        <v>100</v>
-      </c>
-      <c r="W60" s="57">
+        <v>98.68</v>
+      </c>
+      <c r="W60" s="56">
         <f>100*T60/V60</f>
-        <v>0.5</v>
+        <v>0.50668828536684229</v>
       </c>
       <c r="X60">
         <f>100*U60/V60</f>
-        <v>5</v>
+        <v>5.0668828536684227</v>
       </c>
       <c r="AB60" s="46"/>
       <c r="AC60" s="46"/>
@@ -46147,84 +46037,81 @@
       <c r="AI60" s="46"/>
     </row>
     <row r="61" spans="1:35">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="54">
-        <v>100</v>
-      </c>
-      <c r="D61" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54">
+      <c r="C61" s="48">
+        <v>105.97</v>
+      </c>
+      <c r="D61" s="48">
+        <v>13469.5</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="48">
         <v>13566.3</v>
       </c>
       <c r="G61" s="48">
-        <f t="shared" ref="G61:G63" si="21">E61</f>
+        <f t="shared" ref="G61:G63" si="25">E61</f>
         <v>0</v>
       </c>
       <c r="I61">
         <v>99.3</v>
       </c>
       <c r="J61" s="55">
-        <f>100*I61/C61</f>
-        <v>99.3</v>
+        <f t="shared" si="18"/>
+        <v>93.705765782768708</v>
       </c>
       <c r="K61" s="55"/>
-      <c r="L61" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L61" s="57"/>
       <c r="N61">
-        <f>C61</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>105.97</v>
       </c>
       <c r="O61">
         <v>99.3</v>
       </c>
       <c r="P61">
-        <f t="shared" ref="P61:P62" si="22">(O61-N61)/O61</f>
-        <v>-7.049345417925507E-3</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <v>99.3</v>
       </c>
-      <c r="T61" s="54">
+      <c r="T61" s="48">
         <v>0.58785599999999993</v>
       </c>
-      <c r="U61" s="54">
+      <c r="U61" s="48">
         <v>5.3572349999999993</v>
       </c>
       <c r="V61">
-        <f t="shared" ref="V61:V63" si="23">(S61-(S61*P61))</f>
-        <v>100</v>
-      </c>
-      <c r="W61" s="57">
-        <f t="shared" ref="W61:W63" si="24">100*T61/V61</f>
-        <v>0.58785599999999993</v>
+        <f t="shared" ref="V61:V63" si="26">(S61-(S61*P61))</f>
+        <v>99.3</v>
+      </c>
+      <c r="W61" s="56">
+        <f t="shared" ref="W61:W63" si="27">100*T61/V61</f>
+        <v>0.59199999999999997</v>
       </c>
       <c r="X61">
-        <f t="shared" ref="X61:X63" si="25">100*U61/V61</f>
-        <v>5.3572349999999993</v>
+        <f t="shared" ref="X61:X63" si="28">100*U61/V61</f>
+        <v>5.3949999999999996</v>
       </c>
       <c r="AB61" s="46">
         <f>100*(X63-X62)/X61</f>
-        <v>23.90798798260672</v>
+        <v>24.327772362058013</v>
       </c>
       <c r="AC61" s="46">
         <f>100*(((L62-L63)*0.027)/C62)</f>
-        <v>1.9387648000000008</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="46">
         <f>(1000*(((L62-L63)*0.027)/55.85))/(C62/1000)</f>
-        <v>347.13783348254259</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="46">
         <f>1000000*(X63-X62)/55.85/100</f>
-        <v>229.32982990152209</v>
+        <v>235.00148951352367</v>
       </c>
       <c r="AF61" s="46"/>
       <c r="AG61" s="46"/>
@@ -46232,71 +46119,66 @@
       <c r="AI61" s="46"/>
     </row>
     <row r="62" spans="1:35">
-      <c r="A62" s="54"/>
-      <c r="B62" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="54">
-        <v>100</v>
-      </c>
-      <c r="D62" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54">
+      <c r="C62" s="48">
+        <v>101.97</v>
+      </c>
+      <c r="D62" s="48"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="48">
         <v>14150.9</v>
       </c>
       <c r="G62" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I62">
         <v>81.69</v>
       </c>
       <c r="J62" s="55">
-        <f>100*I62/C62</f>
-        <v>81.69</v>
+        <f t="shared" si="18"/>
+        <v>80.111797587525743</v>
       </c>
       <c r="K62" s="55"/>
-      <c r="L62" s="56">
-        <f>(0.001*348.5*55.84)*((C62/1000)/0.027)</f>
-        <v>72.074962962962985</v>
-      </c>
+      <c r="L62" s="57"/>
       <c r="M62">
         <f>(1000*((L62-L63)/55.85)*0.027)/(C62/1000)</f>
-        <v>347.13783348254265</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <f>C62</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>101.97</v>
       </c>
       <c r="O62">
         <v>81.69</v>
       </c>
       <c r="P62">
-        <f t="shared" si="22"/>
-        <v>-0.22414004162076145</v>
+        <f t="shared" ref="P61:P62" si="29">(O62-N62)/O62</f>
+        <v>-0.24825560044069045</v>
       </c>
       <c r="S62">
         <v>81.69</v>
       </c>
-      <c r="T62" s="54">
+      <c r="T62" s="48">
         <v>0.41090069999999995</v>
       </c>
-      <c r="U62" s="54">
+      <c r="U62" s="48">
         <v>3.0396848999999997</v>
       </c>
       <c r="V62">
-        <f t="shared" si="23"/>
-        <v>100</v>
-      </c>
-      <c r="W62" s="57">
-        <f t="shared" si="24"/>
-        <v>0.41090069999999995</v>
+        <f t="shared" si="26"/>
+        <v>101.97</v>
+      </c>
+      <c r="W62" s="56">
+        <f t="shared" si="27"/>
+        <v>0.40296234186525448</v>
       </c>
       <c r="X62">
-        <f t="shared" si="25"/>
-        <v>3.0396848999999997</v>
+        <f t="shared" si="28"/>
+        <v>2.9809599882318327</v>
       </c>
       <c r="AB62" s="46"/>
       <c r="AC62" s="46"/>
@@ -46308,67 +46190,62 @@
       <c r="AI62" s="46"/>
     </row>
     <row r="63" spans="1:35">
-      <c r="A63" s="54"/>
-      <c r="B63" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="54">
-        <v>100</v>
-      </c>
-      <c r="D63" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54">
+      <c r="C63" s="48">
+        <v>100.63</v>
+      </c>
+      <c r="D63" s="48"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="48">
         <v>13570.2</v>
       </c>
       <c r="G63" s="48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I63">
         <v>93.72</v>
       </c>
       <c r="J63" s="55">
-        <f>100*I63/C63</f>
-        <v>93.72</v>
+        <f t="shared" si="18"/>
+        <v>93.133260459107632</v>
       </c>
       <c r="K63" s="55"/>
-      <c r="L63" s="56">
-        <f>(0.001*1.3*55.84)*((C63/1000)/0.027)</f>
-        <v>0.26885925925925935</v>
-      </c>
+      <c r="L63" s="57"/>
       <c r="N63">
-        <f>C63</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>100.63</v>
       </c>
       <c r="O63">
         <v>93.72</v>
       </c>
       <c r="P63">
         <f>(O63-N63)/O63</f>
-        <v>-6.7008109261630408E-2</v>
+        <v>-7.3730260349978621E-2</v>
       </c>
       <c r="S63">
         <v>93.72</v>
       </c>
-      <c r="T63" s="54">
+      <c r="T63" s="48">
         <v>0.4273632</v>
       </c>
-      <c r="U63" s="54">
+      <c r="U63" s="48">
         <v>4.3204920000000007</v>
       </c>
       <c r="V63">
-        <f t="shared" si="23"/>
-        <v>100</v>
-      </c>
-      <c r="W63" s="57">
-        <f t="shared" si="24"/>
-        <v>0.4273632</v>
+        <f t="shared" si="26"/>
+        <v>100.63</v>
+      </c>
+      <c r="W63" s="56">
+        <f t="shared" si="27"/>
+        <v>0.42468766769353078</v>
       </c>
       <c r="X63">
-        <f t="shared" si="25"/>
-        <v>4.3204920000000007</v>
+        <f t="shared" si="28"/>
+        <v>4.2934433071648623</v>
       </c>
       <c r="AB63" s="46"/>
       <c r="AC63" s="46"/>
@@ -46380,46 +46257,43 @@
       <c r="AI63" s="46"/>
     </row>
     <row r="64" spans="1:35">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C64" s="54">
-        <v>100</v>
-      </c>
-      <c r="D64" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54">
+      <c r="C64" s="48">
+        <v>100.68</v>
+      </c>
+      <c r="D64" s="48">
+        <v>13538.11</v>
+      </c>
+      <c r="E64" s="59"/>
+      <c r="F64" s="48">
         <v>13632.5</v>
       </c>
       <c r="G64" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I64">
         <v>100</v>
       </c>
       <c r="J64" s="55">
-        <f>100*I64/C64</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>99.324592769169641</v>
       </c>
       <c r="K64" s="55"/>
-      <c r="L64" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L64" s="57"/>
       <c r="N64">
-        <f>C64</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>100.68</v>
       </c>
       <c r="O64">
         <v>100</v>
       </c>
       <c r="P64">
-        <f t="shared" ref="P64:P66" si="26">(O64-N64)/O64</f>
         <v>0</v>
       </c>
       <c r="S64">
@@ -46432,32 +46306,32 @@
         <v>5</v>
       </c>
       <c r="V64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
-      <c r="W64" s="57">
-        <f t="shared" si="18"/>
+      <c r="W64" s="56">
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="X64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="AB64" s="46">
         <f>100*(X66-X65)/X64</f>
-        <v>0</v>
+        <v>0.55660814090616739</v>
       </c>
       <c r="AC64" s="46">
         <f>100*(((L65-L66)*0.027)/C65)</f>
-        <v>22.596214400000008</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="46">
         <f>(1000*(((L65-L66)*0.027)/55.85))/(C65/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="46">
         <f>1000000*(X66-X65)/55.85/100</f>
-        <v>0</v>
+        <v>4.9830630340749096</v>
       </c>
       <c r="AF64" s="46"/>
       <c r="AG64" s="46"/>
@@ -46465,50 +46339,45 @@
       <c r="AI64" s="46"/>
     </row>
     <row r="65" spans="1:35">
-      <c r="A65" s="54"/>
-      <c r="B65" t="s">
+      <c r="A65" s="48"/>
+      <c r="B65" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="54">
-        <v>100</v>
-      </c>
-      <c r="D65" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54">
+      <c r="C65" s="48">
+        <v>99.68</v>
+      </c>
+      <c r="D65" s="48"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="48">
         <v>13595.4</v>
       </c>
       <c r="G65" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
       <c r="J65" s="55">
-        <f>100*I65/C65</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.32102728731941</v>
       </c>
       <c r="K65" s="55"/>
-      <c r="L65" s="56">
-        <f>(0.001*4048.3*55.84)*((C65/1000)/0.027)</f>
-        <v>837.24841481481508</v>
-      </c>
+      <c r="L65" s="57"/>
       <c r="M65">
         <f>(1000*((L65-L66)/55.85)*0.027)/(C65/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <f>C65</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.68</v>
       </c>
       <c r="O65">
         <v>100</v>
       </c>
       <c r="P65">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" ref="P64:P66" si="30">(O65-N65)/O65</f>
+        <v>3.1999999999999316E-3</v>
       </c>
       <c r="S65">
         <v>100</v>
@@ -46520,16 +46389,16 @@
         <v>5</v>
       </c>
       <c r="V65">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="W65" s="57">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <f t="shared" si="20"/>
+        <v>99.68</v>
+      </c>
+      <c r="W65" s="56">
+        <f t="shared" si="21"/>
+        <v>0.5016051364365971</v>
       </c>
       <c r="X65">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>5.0160513643659703</v>
       </c>
       <c r="AB65" s="46"/>
       <c r="AC65" s="46"/>
@@ -46541,46 +46410,41 @@
       <c r="AI65" s="46"/>
     </row>
     <row r="66" spans="1:35">
-      <c r="A66" s="54"/>
-      <c r="B66" t="s">
+      <c r="A66" s="48"/>
+      <c r="B66" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="54">
-        <v>100</v>
-      </c>
-      <c r="D66" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54">
+      <c r="C66" s="48">
+        <v>99.13</v>
+      </c>
+      <c r="D66" s="48"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="48">
         <v>13542.3</v>
       </c>
       <c r="G66" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I66">
         <v>100</v>
       </c>
       <c r="J66" s="55">
-        <f>100*I66/C66</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.87763542822557</v>
       </c>
       <c r="K66" s="55"/>
-      <c r="L66" s="56">
-        <f>(0.001*1.7*55.84)*((C66/1000)/0.027)</f>
-        <v>0.35158518518518522</v>
-      </c>
+      <c r="L66" s="57"/>
       <c r="N66">
-        <f>C66</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.13</v>
       </c>
       <c r="O66">
         <v>100</v>
       </c>
       <c r="P66">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>8.7000000000000462E-3</v>
       </c>
       <c r="S66">
         <v>100</v>
@@ -46592,16 +46456,16 @@
         <v>5</v>
       </c>
       <c r="V66">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="W66" s="57">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <f t="shared" si="20"/>
+        <v>99.13</v>
+      </c>
+      <c r="W66" s="56">
+        <f t="shared" si="21"/>
+        <v>0.50438817714112782</v>
       </c>
       <c r="X66">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>5.0438817714112787</v>
       </c>
       <c r="AB66" s="46"/>
       <c r="AC66" s="46"/>
@@ -46613,46 +46477,43 @@
       <c r="AI66" s="46"/>
     </row>
     <row r="67" spans="1:35">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="54">
-        <v>100</v>
-      </c>
-      <c r="D67" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54">
+      <c r="C67" s="48">
+        <v>99.76</v>
+      </c>
+      <c r="D67" s="48">
+        <v>13527.83</v>
+      </c>
+      <c r="E67" s="59"/>
+      <c r="F67" s="48">
         <v>13623.2</v>
       </c>
       <c r="G67" s="48">
-        <f t="shared" ref="G67:G75" si="27">E67</f>
+        <f t="shared" ref="G67:G75" si="31">E67</f>
         <v>0</v>
       </c>
       <c r="I67">
         <v>100</v>
       </c>
       <c r="J67" s="55">
-        <f>100*I67/C67</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.24057738572574</v>
       </c>
       <c r="K67" s="55"/>
-      <c r="L67" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L67" s="57"/>
       <c r="N67">
-        <f>C67</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.76</v>
       </c>
       <c r="O67">
         <v>100</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P68" si="28">(O67-N67)/O67</f>
         <v>0</v>
       </c>
       <c r="S67">
@@ -46665,32 +46526,32 @@
         <v>5</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V75" si="29">(S67-(S67*P67))</f>
+        <f t="shared" ref="V67:V75" si="32">(S67-(S67*P67))</f>
         <v>100</v>
       </c>
-      <c r="W67" s="57">
-        <f t="shared" ref="W67:W75" si="30">100*T67/V67</f>
+      <c r="W67" s="56">
+        <f t="shared" ref="W67:W75" si="33">100*T67/V67</f>
         <v>0.5</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X75" si="31">100*U67/V67</f>
+        <f t="shared" ref="X67:X75" si="34">100*U67/V67</f>
         <v>5</v>
       </c>
       <c r="AB67" s="46">
         <f>100*(X69-X68)/X67</f>
-        <v>0</v>
+        <v>-2.4780869019644847</v>
       </c>
       <c r="AC67" s="46">
         <f>100*(((L68-L69)*0.027)/C68)</f>
-        <v>1.9387648000000008</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="46">
         <f>(1000*(((L68-L69)*0.027)/55.85))/(C68/1000)</f>
-        <v>347.13783348254259</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="46">
         <f>1000000*(X69-X68)/55.85/100</f>
-        <v>0</v>
+        <v>-22.185200554740241</v>
       </c>
       <c r="AF67" s="46"/>
       <c r="AG67" s="46"/>
@@ -46698,50 +46559,45 @@
       <c r="AI67" s="46"/>
     </row>
     <row r="68" spans="1:35">
-      <c r="A68" s="54"/>
-      <c r="B68" t="s">
+      <c r="A68" s="48"/>
+      <c r="B68" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="54">
-        <v>100</v>
-      </c>
-      <c r="D68" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54">
+      <c r="C68" s="48">
+        <v>99.59</v>
+      </c>
+      <c r="D68" s="48"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="48">
         <v>13633.1</v>
       </c>
       <c r="G68" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
       <c r="J68" s="55">
-        <f>100*I68/C68</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.41168792047394</v>
       </c>
       <c r="K68" s="55"/>
-      <c r="L68" s="56">
-        <f>(0.001*348.5*55.84)*((C68/1000)/0.027)</f>
-        <v>72.074962962962985</v>
-      </c>
+      <c r="L68" s="57"/>
       <c r="M68">
         <f>(1000*((L68-L69)/55.85)*0.027)/(C68/1000)</f>
-        <v>347.13783348254265</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <f>C68</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.59</v>
       </c>
       <c r="O68">
         <v>100</v>
       </c>
       <c r="P68">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" ref="P67:P68" si="35">(O68-N68)/O68</f>
+        <v>4.0999999999999657E-3</v>
       </c>
       <c r="S68">
         <v>100</v>
@@ -46753,16 +46609,16 @@
         <v>5</v>
       </c>
       <c r="V68">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
-      <c r="W68" s="57">
-        <f t="shared" si="30"/>
-        <v>0.5</v>
+        <f t="shared" si="32"/>
+        <v>99.59</v>
+      </c>
+      <c r="W68" s="56">
+        <f t="shared" si="33"/>
+        <v>0.50205843960236973</v>
       </c>
       <c r="X68">
-        <f t="shared" si="31"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>5.0205843960236969</v>
       </c>
       <c r="AB68" s="46"/>
       <c r="AC68" s="46"/>
@@ -46774,46 +46630,41 @@
       <c r="AI68" s="46"/>
     </row>
     <row r="69" spans="1:35">
-      <c r="A69" s="54"/>
-      <c r="B69" t="s">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="54">
-        <v>100</v>
-      </c>
-      <c r="D69" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54">
+      <c r="C69" s="48">
+        <v>102.11</v>
+      </c>
+      <c r="D69" s="48"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="48">
         <v>13619.8</v>
       </c>
       <c r="G69" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I69">
         <v>100</v>
       </c>
       <c r="J69" s="55">
-        <f>100*I69/C69</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>97.933601018509449</v>
       </c>
       <c r="K69" s="55"/>
-      <c r="L69" s="56">
-        <f>(0.001*1.3*55.84)*((C69/1000)/0.027)</f>
-        <v>0.26885925925925935</v>
-      </c>
+      <c r="L69" s="57"/>
       <c r="N69">
-        <f>C69</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>102.11</v>
       </c>
       <c r="O69">
         <v>100</v>
       </c>
       <c r="P69">
         <f>(O69-N69)/O69</f>
-        <v>0</v>
+        <v>-2.1099999999999994E-2</v>
       </c>
       <c r="S69">
         <v>100</v>
@@ -46825,16 +46676,16 @@
         <v>5</v>
       </c>
       <c r="V69">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
-      <c r="W69" s="57">
-        <f t="shared" si="30"/>
-        <v>0.5</v>
+        <f t="shared" si="32"/>
+        <v>102.11</v>
+      </c>
+      <c r="W69" s="56">
+        <f t="shared" si="33"/>
+        <v>0.48966800509254726</v>
       </c>
       <c r="X69">
-        <f t="shared" si="31"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>4.8966800509254726</v>
       </c>
       <c r="AB69" s="46"/>
       <c r="AC69" s="46"/>
@@ -46846,20 +46697,20 @@
       <c r="AI69" s="46"/>
     </row>
     <row r="70" spans="1:35">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="54">
-        <v>100</v>
-      </c>
-      <c r="D70" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54">
+      <c r="C70" s="48">
+        <v>81.39</v>
+      </c>
+      <c r="D70" s="48">
+        <v>14102.41</v>
+      </c>
+      <c r="E70" s="59"/>
+      <c r="F70" s="48">
         <v>14176.9</v>
       </c>
       <c r="G70" s="48">
@@ -46870,60 +46721,57 @@
         <v>73.260000000000005</v>
       </c>
       <c r="J70" s="55">
-        <f>100*I70/C70</f>
-        <v>73.260000000000005</v>
+        <f t="shared" si="18"/>
+        <v>90.011057869517145</v>
       </c>
       <c r="K70" s="55"/>
-      <c r="L70" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L70" s="57"/>
       <c r="N70">
-        <f>C70</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>81.39</v>
       </c>
       <c r="O70">
         <v>73.260000000000005</v>
       </c>
       <c r="P70">
-        <f>(O70-N70)/O70</f>
-        <v>-0.36500136500136493</v>
+        <v>0</v>
       </c>
       <c r="S70">
         <v>73.260000000000005</v>
       </c>
-      <c r="T70" s="54">
+      <c r="T70" s="48">
         <v>0.5611716000000001</v>
       </c>
-      <c r="U70" s="54">
+      <c r="U70" s="48">
         <v>5.5611666</v>
       </c>
       <c r="V70">
         <f>(S70-(S70*P70))</f>
-        <v>100</v>
-      </c>
-      <c r="W70" s="57">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="W70" s="56">
         <f>100*T70/V70</f>
-        <v>0.5611716000000001</v>
+        <v>0.76600000000000013</v>
       </c>
       <c r="X70">
         <f>100*U70/V70</f>
-        <v>5.5611666</v>
+        <v>7.5910000000000002</v>
       </c>
       <c r="AB70" s="46">
         <f>100*(X72-X71)/X70</f>
-        <v>22.504582042192364</v>
+        <v>16.728515185369353</v>
       </c>
       <c r="AC70" s="46">
         <f>100*(((L71-L72)*0.027)/C71)</f>
-        <v>22.596214400000008</v>
+        <v>0</v>
       </c>
       <c r="AD70" s="46">
         <f>(1000*(((L71-L72)*0.027)/55.85))/(C71/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="AE70" s="46">
         <f>1000000*(X72-X71)/55.85/100</f>
-        <v>224.08546105640104</v>
+        <v>227.37002465915623</v>
       </c>
       <c r="AF70" s="46"/>
       <c r="AG70" s="46"/>
@@ -46931,18 +46779,16 @@
       <c r="AI70" s="46"/>
     </row>
     <row r="71" spans="1:35">
-      <c r="A71" s="54"/>
-      <c r="B71" t="s">
+      <c r="A71" s="48"/>
+      <c r="B71" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="54">
-        <v>100</v>
-      </c>
-      <c r="D71" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54">
+      <c r="C71" s="48">
+        <v>101.33</v>
+      </c>
+      <c r="D71" s="48"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="48">
         <v>13626.9</v>
       </c>
       <c r="G71" s="48">
@@ -46953,49 +46799,46 @@
         <v>81.99</v>
       </c>
       <c r="J71" s="55">
-        <f>100*I71/C71</f>
-        <v>81.99</v>
+        <f t="shared" si="18"/>
+        <v>80.913845850192445</v>
       </c>
       <c r="K71" s="55"/>
-      <c r="L71" s="56">
-        <f>(0.001*4048.3*55.84)*((C71/1000)/0.027)</f>
-        <v>837.24841481481508</v>
-      </c>
+      <c r="L71" s="57"/>
       <c r="M71">
         <f>(1000*((L71-L72)/55.85)*0.027)/(C71/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <f>C71</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>101.33</v>
       </c>
       <c r="O71">
         <v>81.99</v>
       </c>
       <c r="P71">
         <f>(O71-N71)/O71</f>
-        <v>-0.21966093426027572</v>
+        <v>-0.23588242468593737</v>
       </c>
       <c r="S71">
         <v>81.99</v>
       </c>
-      <c r="T71" s="54">
+      <c r="T71" s="48">
         <v>0.48046139999999993</v>
       </c>
-      <c r="U71" s="54">
+      <c r="U71" s="48">
         <v>4.6635911999999999</v>
       </c>
       <c r="V71">
         <f>(S71-(S71*P71))</f>
-        <v>100</v>
-      </c>
-      <c r="W71" s="57">
+        <v>101.33</v>
+      </c>
+      <c r="W71" s="56">
         <f>100*T71/V71</f>
-        <v>0.48046139999999993</v>
+        <v>0.47415513668212766</v>
       </c>
       <c r="X71">
         <f>100*U71/V71</f>
-        <v>4.6635911999999999</v>
+        <v>4.6023795519589461</v>
       </c>
       <c r="AB71" s="46"/>
       <c r="AC71" s="46"/>
@@ -47007,18 +46850,16 @@
       <c r="AI71" s="46"/>
     </row>
     <row r="72" spans="1:35">
-      <c r="A72" s="54"/>
-      <c r="B72" t="s">
+      <c r="A72" s="48"/>
+      <c r="B72" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C72" s="54">
-        <v>100</v>
-      </c>
-      <c r="D72" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54">
+      <c r="C72" s="48">
+        <v>100.73</v>
+      </c>
+      <c r="D72" s="48"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="48">
         <v>13550.4</v>
       </c>
       <c r="G72" s="48">
@@ -47029,45 +46870,42 @@
         <v>92.15</v>
       </c>
       <c r="J72" s="55">
-        <f>100*I72/C72</f>
-        <v>92.15</v>
+        <f t="shared" si="18"/>
+        <v>91.48218008537674</v>
       </c>
       <c r="K72" s="55"/>
-      <c r="L72" s="56">
-        <f>(0.001*1.7*55.84)*((C72/1000)/0.027)</f>
-        <v>0.35158518518518522</v>
-      </c>
+      <c r="L72" s="57"/>
       <c r="N72">
-        <f>C72</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>100.73</v>
       </c>
       <c r="O72">
         <v>92.15</v>
       </c>
       <c r="P72">
         <f>(O72-N72)/O72</f>
-        <v>-8.51871947911014E-2</v>
+        <v>-9.3109061313076488E-2</v>
       </c>
       <c r="S72">
         <v>92.15</v>
       </c>
-      <c r="T72" s="54">
+      <c r="T72" s="48">
         <v>0.59252450000000001</v>
       </c>
-      <c r="U72" s="54">
+      <c r="U72" s="48">
         <v>5.9151084999999997</v>
       </c>
       <c r="V72">
         <f>(S72-(S72*P72))</f>
-        <v>100</v>
-      </c>
-      <c r="W72" s="57">
+        <v>100.73</v>
+      </c>
+      <c r="W72" s="56">
         <f>100*T72/V72</f>
-        <v>0.59252450000000001</v>
+        <v>0.58823041794897246</v>
       </c>
       <c r="X72">
         <f>100*U72/V72</f>
-        <v>5.9151084999999997</v>
+        <v>5.8722411396803338</v>
       </c>
       <c r="AB72" s="46"/>
       <c r="AC72" s="46"/>
@@ -47079,46 +46917,43 @@
       <c r="AI72" s="46"/>
     </row>
     <row r="73" spans="1:35">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="54">
-        <v>100</v>
-      </c>
-      <c r="D73" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54">
+      <c r="C73" s="48">
+        <v>101.79</v>
+      </c>
+      <c r="D73" s="48">
+        <v>13431.23</v>
+      </c>
+      <c r="E73" s="59"/>
+      <c r="F73" s="48">
         <v>13525.5</v>
       </c>
       <c r="G73" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I73">
         <v>100</v>
       </c>
       <c r="J73" s="55">
-        <f>100*I73/C73</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>98.241477551822371</v>
       </c>
       <c r="K73" s="55"/>
-      <c r="L73" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L73" s="57"/>
       <c r="N73">
-        <f>C73</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>101.79</v>
       </c>
       <c r="O73">
         <v>100</v>
       </c>
       <c r="P73">
-        <f t="shared" ref="P73:P75" si="32">(O73-N73)/O73</f>
         <v>0</v>
       </c>
       <c r="S73">
@@ -47131,32 +46966,32 @@
         <v>5</v>
       </c>
       <c r="V73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
-      <c r="W73" s="57">
-        <f t="shared" si="30"/>
+      <c r="W73" s="56">
+        <f t="shared" si="33"/>
         <v>0.5</v>
       </c>
       <c r="X73">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AB73" s="46">
         <f>100*(X75-X74)/X73</f>
-        <v>0</v>
+        <v>5.0266060267656343E-2</v>
       </c>
       <c r="AC73" s="46">
         <f>100*(((L74-L75)*0.027)/C74)</f>
-        <v>22.596214400000008</v>
+        <v>0</v>
       </c>
       <c r="AD73" s="46">
         <f>(1000*(((L74-L75)*0.027)/55.85))/(C74/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="46">
         <f>1000000*(X75-X74)/55.85/100</f>
-        <v>0</v>
+        <v>0.45000949210077296</v>
       </c>
       <c r="AF73" s="46"/>
       <c r="AG73" s="46"/>
@@ -47164,50 +46999,45 @@
       <c r="AI73" s="46"/>
     </row>
     <row r="74" spans="1:35">
-      <c r="A74" s="54"/>
-      <c r="B74" t="s">
+      <c r="A74" s="48"/>
+      <c r="B74" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="54">
-        <v>100</v>
-      </c>
-      <c r="D74" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54">
+      <c r="C74" s="48">
+        <v>99.76</v>
+      </c>
+      <c r="D74" s="48"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="48">
         <v>13670.9</v>
       </c>
       <c r="G74" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I74">
         <v>100</v>
       </c>
       <c r="J74" s="55">
-        <f>100*I74/C74</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.24057738572574</v>
       </c>
       <c r="K74" s="55"/>
-      <c r="L74" s="56">
-        <f>(0.001*4048.3*55.84)*((C74/1000)/0.027)</f>
-        <v>837.24841481481508</v>
-      </c>
+      <c r="L74" s="57"/>
       <c r="M74">
         <f>(1000*((L74-L75)/55.85)*0.027)/(C74/1000)</f>
-        <v>4045.8754521038509</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <f>C74</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.76</v>
       </c>
       <c r="O74">
         <v>100</v>
       </c>
       <c r="P74">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" ref="P73:P75" si="36">(O74-N74)/O74</f>
+        <v>2.399999999999949E-3</v>
       </c>
       <c r="S74">
         <v>100</v>
@@ -47219,16 +47049,16 @@
         <v>5</v>
       </c>
       <c r="V74">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
-      <c r="W74" s="57">
-        <f t="shared" si="30"/>
-        <v>0.5</v>
+        <f t="shared" si="32"/>
+        <v>99.76</v>
+      </c>
+      <c r="W74" s="56">
+        <f t="shared" si="33"/>
+        <v>0.50120288692862869</v>
       </c>
       <c r="X74">
-        <f t="shared" si="31"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>5.0120288692862864</v>
       </c>
       <c r="AB74" s="46"/>
       <c r="AC74" s="46"/>
@@ -47240,46 +47070,41 @@
       <c r="AI74" s="46"/>
     </row>
     <row r="75" spans="1:35">
-      <c r="A75" s="54"/>
-      <c r="B75" t="s">
+      <c r="A75" s="48"/>
+      <c r="B75" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C75" s="54">
-        <v>100</v>
-      </c>
-      <c r="D75" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54">
+      <c r="C75" s="48">
+        <v>99.71</v>
+      </c>
+      <c r="D75" s="48"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="48">
         <v>13609.5</v>
       </c>
       <c r="G75" s="48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I75">
         <v>100</v>
       </c>
       <c r="J75" s="55">
-        <f>100*I75/C75</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.29084344599339</v>
       </c>
       <c r="K75" s="55"/>
-      <c r="L75" s="56">
-        <f>(0.001*1.7*55.84)*((C75/1000)/0.027)</f>
-        <v>0.35158518518518522</v>
-      </c>
+      <c r="L75" s="57"/>
       <c r="N75">
-        <f>C75</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.71</v>
       </c>
       <c r="O75">
         <v>100</v>
       </c>
       <c r="P75">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>2.9000000000000627E-3</v>
       </c>
       <c r="S75">
         <v>100</v>
@@ -47291,16 +47116,16 @@
         <v>5</v>
       </c>
       <c r="V75">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
-      <c r="W75" s="57">
-        <f t="shared" si="30"/>
-        <v>0.5</v>
+        <f t="shared" si="32"/>
+        <v>99.71</v>
+      </c>
+      <c r="W75" s="56">
+        <f t="shared" si="33"/>
+        <v>0.50145421722996697</v>
       </c>
       <c r="X75">
-        <f t="shared" si="31"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>5.0145421722996693</v>
       </c>
       <c r="AB75" s="46"/>
       <c r="AC75" s="46"/>
@@ -47312,46 +47137,43 @@
       <c r="AI75" s="46"/>
     </row>
     <row r="76" spans="1:35">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C76" s="54">
-        <v>100</v>
-      </c>
-      <c r="D76" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54">
+      <c r="C76" s="48">
+        <v>68</v>
+      </c>
+      <c r="D76" s="48">
+        <v>13537.05</v>
+      </c>
+      <c r="E76" s="59"/>
+      <c r="F76" s="48">
         <v>13598.9</v>
       </c>
       <c r="G76" s="48">
-        <f>E76</f>
+        <f t="shared" ref="G76:G111" si="37">E76</f>
         <v>0</v>
       </c>
       <c r="I76">
         <v>100</v>
       </c>
       <c r="J76" s="55">
-        <f>100*I76/C76</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>147.05882352941177</v>
       </c>
       <c r="K76" s="55"/>
-      <c r="L76" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L76" s="57"/>
       <c r="N76">
-        <f>C76</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>68</v>
       </c>
       <c r="O76">
         <v>100</v>
       </c>
       <c r="P76">
-        <f>(O76-N76)/O76</f>
         <v>0</v>
       </c>
       <c r="S76">
@@ -47364,32 +47186,32 @@
         <v>5</v>
       </c>
       <c r="V76">
-        <f>(S76-(S76*P76))</f>
+        <f t="shared" ref="V76:V111" si="38">(S76-(S76*P76))</f>
         <v>100</v>
       </c>
-      <c r="W76" s="57">
-        <f>100*T76/V76</f>
+      <c r="W76" s="56">
+        <f t="shared" ref="W76:W111" si="39">100*T76/V76</f>
         <v>0.5</v>
       </c>
       <c r="X76">
-        <f>100*U76/V76</f>
+        <f t="shared" ref="X76:X111" si="40">100*U76/V76</f>
         <v>5</v>
       </c>
       <c r="AB76" s="46">
         <f>100*(X78-X77)/X76</f>
-        <v>0</v>
+        <v>5.3626644939043722</v>
       </c>
       <c r="AC76" s="46">
         <f>100*(((L77-L78)*0.027)/C77)</f>
-        <v>1.9387648000000008</v>
+        <v>0</v>
       </c>
       <c r="AD76" s="46">
         <f>(1000*(((L77-L78)*0.027)/55.85))/(C77/1000)</f>
-        <v>347.13783348254259</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="46">
         <f>1000000*(X78-X77)/55.85/100</f>
-        <v>0</v>
+        <v>48.009529936476028</v>
       </c>
       <c r="AF76" s="46"/>
       <c r="AG76" s="46"/>
@@ -47397,50 +47219,45 @@
       <c r="AI76" s="46"/>
     </row>
     <row r="77" spans="1:35">
-      <c r="A77" s="54"/>
-      <c r="B77" t="s">
+      <c r="A77" s="48"/>
+      <c r="B77" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C77" s="54">
-        <v>100</v>
-      </c>
-      <c r="D77" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54">
+      <c r="C77" s="48">
+        <v>99.7</v>
+      </c>
+      <c r="D77" s="48"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="48">
         <v>13648.300000000001</v>
       </c>
       <c r="G77" s="48">
-        <f>E77</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I77">
         <v>100</v>
       </c>
       <c r="J77" s="55">
-        <f>100*I77/C77</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.30090270812437</v>
       </c>
       <c r="K77" s="55"/>
-      <c r="L77" s="56">
-        <f>(0.001*348.5*55.84)*((C77/1000)/0.027)</f>
-        <v>72.074962962962985</v>
-      </c>
+      <c r="L77" s="57"/>
       <c r="M77">
         <f>(1000*((L77-L78)/55.85)*0.027)/(C77/1000)</f>
-        <v>347.13783348254265</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <f>C77</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.7</v>
       </c>
       <c r="O77">
         <v>100</v>
       </c>
       <c r="P77">
-        <f>(O77-N77)/O77</f>
-        <v>0</v>
+        <f t="shared" ref="P76:P81" si="41">(O77-N77)/O77</f>
+        <v>2.9999999999999714E-3</v>
       </c>
       <c r="S77">
         <v>100</v>
@@ -47452,16 +47269,16 @@
         <v>5</v>
       </c>
       <c r="V77">
-        <f>(S77-(S77*P77))</f>
-        <v>100</v>
-      </c>
-      <c r="W77" s="57">
-        <f>100*T77/V77</f>
-        <v>0.5</v>
+        <f t="shared" si="38"/>
+        <v>99.7</v>
+      </c>
+      <c r="W77" s="56">
+        <f t="shared" si="39"/>
+        <v>0.50150451354062187</v>
       </c>
       <c r="X77">
-        <f>100*U77/V77</f>
-        <v>5</v>
+        <f t="shared" si="40"/>
+        <v>5.0150451354062184</v>
       </c>
       <c r="AB77" s="46"/>
       <c r="AC77" s="46"/>
@@ -47473,46 +47290,41 @@
       <c r="AI77" s="46"/>
     </row>
     <row r="78" spans="1:35">
-      <c r="A78" s="54"/>
-      <c r="B78" t="s">
+      <c r="A78" s="48"/>
+      <c r="B78" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="54">
-        <v>100</v>
-      </c>
-      <c r="D78" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54">
+      <c r="C78" s="48">
+        <v>94.64</v>
+      </c>
+      <c r="D78" s="48"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="48">
         <v>13593.3</v>
       </c>
       <c r="G78" s="48">
-        <f>E78</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I78">
         <v>100</v>
       </c>
       <c r="J78" s="55">
-        <f>100*I78/C78</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>105.66356720202874</v>
       </c>
       <c r="K78" s="55"/>
-      <c r="L78" s="56">
-        <f>(0.001*1.3*55.84)*((C78/1000)/0.027)</f>
-        <v>0.26885925925925935</v>
-      </c>
+      <c r="L78" s="57"/>
       <c r="N78">
-        <f>C78</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>94.64</v>
       </c>
       <c r="O78">
         <v>100</v>
       </c>
       <c r="P78">
-        <f>(O78-N78)/O78</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>5.3599999999999995E-2</v>
       </c>
       <c r="S78">
         <v>100</v>
@@ -47524,16 +47336,16 @@
         <v>5</v>
       </c>
       <c r="V78">
-        <f>(S78-(S78*P78))</f>
-        <v>100</v>
-      </c>
-      <c r="W78" s="57">
-        <f>100*T78/V78</f>
-        <v>0.5</v>
+        <f t="shared" si="38"/>
+        <v>94.64</v>
+      </c>
+      <c r="W78" s="56">
+        <f t="shared" si="39"/>
+        <v>0.5283178360101437</v>
       </c>
       <c r="X78">
-        <f>100*U78/V78</f>
-        <v>5</v>
+        <f t="shared" si="40"/>
+        <v>5.283178360101437</v>
       </c>
       <c r="AB78" s="46"/>
       <c r="AC78" s="46"/>
@@ -47545,46 +47357,43 @@
       <c r="AI78" s="46"/>
     </row>
     <row r="79" spans="1:35">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="54">
-        <v>100</v>
-      </c>
-      <c r="D79" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54">
+      <c r="C79" s="48">
+        <v>99.53</v>
+      </c>
+      <c r="D79" s="48">
+        <v>14120.87</v>
+      </c>
+      <c r="E79" s="59"/>
+      <c r="F79" s="48">
         <v>14216.2</v>
       </c>
       <c r="G79" s="48">
-        <f>E79</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I79">
         <v>100</v>
       </c>
       <c r="J79" s="55">
-        <f>100*I79/C79</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.47221943132723</v>
       </c>
       <c r="K79" s="55"/>
-      <c r="L79" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L79" s="57"/>
       <c r="N79">
-        <f>C79</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.53</v>
       </c>
       <c r="O79">
         <v>100</v>
       </c>
       <c r="P79">
-        <f>(O79-N79)/O79</f>
         <v>0</v>
       </c>
       <c r="S79">
@@ -47597,15 +47406,15 @@
         <v>5</v>
       </c>
       <c r="V79">
-        <f>(S79-(S79*P79))</f>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
-      <c r="W79" s="57">
-        <f>100*T79/V79</f>
+      <c r="W79" s="56">
+        <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
       <c r="X79">
-        <f>100*U79/V79</f>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="AB79" s="46">
@@ -47614,11 +47423,11 @@
       </c>
       <c r="AC79" s="46">
         <f>100*(((L80-L81)*0.027)/C80)</f>
-        <v>1.9387648000000008</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="46">
         <f>(1000*(((L80-L81)*0.027)/55.85))/(C80/1000)</f>
-        <v>347.13783348254259</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="46">
         <f>1000000*(X81-X80)/55.85/100</f>
@@ -47630,50 +47439,45 @@
       <c r="AI79" s="46"/>
     </row>
     <row r="80" spans="1:35">
-      <c r="A80" s="54"/>
-      <c r="B80" t="s">
+      <c r="A80" s="48"/>
+      <c r="B80" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C80" s="54">
-        <v>100</v>
-      </c>
-      <c r="D80" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54">
+      <c r="C80" s="48">
+        <v>99.45</v>
+      </c>
+      <c r="D80" s="48"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="48">
         <v>13580.4</v>
       </c>
       <c r="G80" s="48">
-        <f>E80</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I80">
         <v>100</v>
       </c>
       <c r="J80" s="55">
-        <f>100*I80/C80</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.55304172951232</v>
       </c>
       <c r="K80" s="55"/>
-      <c r="L80" s="56">
-        <f>(0.001*348.5*55.84)*((C80/1000)/0.027)</f>
-        <v>72.074962962962985</v>
-      </c>
+      <c r="L80" s="57"/>
       <c r="M80">
         <f>(1000*((L80-L81)/55.85)*0.027)/(C80/1000)</f>
-        <v>347.13783348254265</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <f>C80</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.45</v>
       </c>
       <c r="O80">
         <v>100</v>
       </c>
       <c r="P80">
-        <f>(O80-N80)/O80</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>5.4999999999999719E-3</v>
       </c>
       <c r="S80">
         <v>100</v>
@@ -47685,16 +47489,16 @@
         <v>5</v>
       </c>
       <c r="V80">
-        <f>(S80-(S80*P80))</f>
-        <v>100</v>
-      </c>
-      <c r="W80" s="57">
-        <f>100*T80/V80</f>
-        <v>0.5</v>
+        <f t="shared" si="38"/>
+        <v>99.45</v>
+      </c>
+      <c r="W80" s="56">
+        <f t="shared" si="39"/>
+        <v>0.50276520864756158</v>
       </c>
       <c r="X80">
-        <f>100*U80/V80</f>
-        <v>5</v>
+        <f t="shared" si="40"/>
+        <v>5.0276520864756158</v>
       </c>
       <c r="AB80" s="46"/>
       <c r="AC80" s="46"/>
@@ -47706,46 +47510,41 @@
       <c r="AI80" s="46"/>
     </row>
     <row r="81" spans="1:35">
-      <c r="A81" s="54"/>
-      <c r="B81" t="s">
+      <c r="A81" s="48"/>
+      <c r="B81" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C81" s="54">
-        <v>100</v>
-      </c>
-      <c r="D81" s="54">
-        <v>2587</v>
-      </c>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54">
+      <c r="C81" s="48">
+        <v>99.45</v>
+      </c>
+      <c r="D81" s="48"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="48">
         <v>13621.4</v>
       </c>
       <c r="G81" s="48">
-        <f>E81</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I81">
         <v>100</v>
       </c>
       <c r="J81" s="55">
-        <f>100*I81/C81</f>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>100.55304172951232</v>
       </c>
       <c r="K81" s="55"/>
-      <c r="L81" s="56">
-        <f>(0.001*1.3*55.84)*((C81/1000)/0.027)</f>
-        <v>0.26885925925925935</v>
-      </c>
+      <c r="L81" s="57"/>
       <c r="N81">
-        <f>C81</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>99.45</v>
       </c>
       <c r="O81">
         <v>100</v>
       </c>
       <c r="P81">
-        <f>(O81-N81)/O81</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>5.4999999999999719E-3</v>
       </c>
       <c r="S81">
         <v>100</v>
@@ -47757,16 +47556,16 @@
         <v>5</v>
       </c>
       <c r="V81">
-        <f>(S81-(S81*P81))</f>
-        <v>100</v>
-      </c>
-      <c r="W81" s="57">
-        <f>100*T81/V81</f>
-        <v>0.5</v>
+        <f t="shared" si="38"/>
+        <v>99.45</v>
+      </c>
+      <c r="W81" s="56">
+        <f t="shared" si="39"/>
+        <v>0.50276520864756158</v>
       </c>
       <c r="X81">
-        <f>100*U81/V81</f>
-        <v>5</v>
+        <f t="shared" si="40"/>
+        <v>5.0276520864756158</v>
       </c>
       <c r="AB81" s="46"/>
       <c r="AC81" s="46"/>
@@ -47778,39 +47577,38 @@
       <c r="AI81" s="46"/>
     </row>
     <row r="82" spans="1:35">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="48">
         <v>99.27</v>
       </c>
-      <c r="E82">
+      <c r="D82" s="48"/>
+      <c r="E82" s="48">
         <v>13978.9</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="48">
         <v>13979.37</v>
       </c>
       <c r="G82" s="48">
-        <f>E82</f>
+        <f t="shared" si="37"/>
         <v>13978.9</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82:I110" si="33">S82</f>
+        <f t="shared" ref="I82:I110" si="42">S82</f>
         <v>90.18</v>
       </c>
       <c r="J82" s="55">
-        <f>100*I82/C82</f>
+        <f t="shared" si="18"/>
         <v>90.843155031731641</v>
       </c>
       <c r="K82" s="55"/>
-      <c r="L82" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L82" s="57"/>
       <c r="N82">
-        <f>C82</f>
+        <f t="shared" si="19"/>
         <v>99.27</v>
       </c>
       <c r="O82">
@@ -47830,15 +47628,15 @@
         <v>8.4609647999999993</v>
       </c>
       <c r="V82">
-        <f>(S82-(S82*P82))</f>
+        <f t="shared" si="38"/>
         <v>90.18</v>
       </c>
-      <c r="W82" s="57">
-        <f>100*T82/V82</f>
+      <c r="W82" s="56">
+        <f t="shared" si="39"/>
         <v>1.0407032601463737</v>
       </c>
       <c r="X82">
-        <f>100*U82/V82</f>
+        <f t="shared" si="40"/>
         <v>9.3823073852295398</v>
       </c>
       <c r="AB82" s="46">
@@ -47847,11 +47645,11 @@
       </c>
       <c r="AC82" s="46">
         <f>100*(((L83-L84)*0.027)/C83)</f>
-        <v>1.9395175191446443</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="46">
         <f>(1000*(((L83-L84)*0.027)/55.85))/(C83/1000)</f>
-        <v>347.27260862034814</v>
+        <v>0</v>
       </c>
       <c r="AE82" s="46">
         <f>1000000*(X84-X83)/55.85/100</f>
@@ -47859,49 +47657,46 @@
       </c>
     </row>
     <row r="83" spans="1:35">
-      <c r="A83" s="54"/>
-      <c r="B83" t="s">
+      <c r="A83" s="48"/>
+      <c r="B83" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="48">
         <v>99.14</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="48">
         <v>16446.73</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="48">
         <v>16508.63</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="48">
         <v>16508.2</v>
       </c>
       <c r="G83" s="48">
-        <f>E83</f>
+        <f t="shared" si="37"/>
         <v>16508.63</v>
       </c>
       <c r="I83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>54.7</v>
       </c>
       <c r="J83" s="55">
-        <f>100*I83/C83</f>
+        <f t="shared" si="18"/>
         <v>55.174500706072223</v>
       </c>
       <c r="K83" s="55"/>
-      <c r="L83" s="56">
-        <f>(0.001*348.5*55.84)*((C83/1000)/0.027)</f>
-        <v>71.455118281481489</v>
-      </c>
+      <c r="L83" s="57"/>
       <c r="M83">
         <f>(1000*((L83-L84)/55.85)*0.027)/(C83/1000)</f>
-        <v>347.27260862034814</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <f>C83</f>
+        <f t="shared" si="19"/>
         <v>99.14</v>
       </c>
       <c r="O83">
-        <f t="shared" ref="O83:O111" si="34">F83-D83</f>
+        <f t="shared" ref="O83:O111" si="43">F83-D83</f>
         <v>61.470000000001164</v>
       </c>
       <c r="P83">
@@ -47918,15 +47713,15 @@
         <v>4.0435354999999999</v>
       </c>
       <c r="V83">
-        <f>(S83-(S83*P83))</f>
+        <f t="shared" si="38"/>
         <v>88.221213600128479</v>
       </c>
-      <c r="W83" s="57">
-        <f>100*T83/V83</f>
+      <c r="W83" s="56">
+        <f t="shared" si="39"/>
         <v>0.53279418953642166</v>
       </c>
       <c r="X83">
-        <f>100*U83/V83</f>
+        <f t="shared" si="40"/>
         <v>4.5834049827604177</v>
       </c>
       <c r="AB83" s="46"/>
@@ -47935,45 +47730,42 @@
       <c r="AE83" s="46"/>
     </row>
     <row r="84" spans="1:35">
-      <c r="A84" s="54"/>
-      <c r="B84" t="s">
+      <c r="A84" s="48"/>
+      <c r="B84" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="48">
         <v>88.86</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="48">
         <v>16145.2</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="48">
         <v>16236.09</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="48">
         <v>16236.65</v>
       </c>
       <c r="G84" s="48">
-        <f>E84</f>
+        <f t="shared" si="37"/>
         <v>16236.09</v>
       </c>
       <c r="I84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>92.69</v>
       </c>
       <c r="J84" s="55">
-        <f>100*I84/C84</f>
+        <f t="shared" ref="J84:J111" si="44">100*I84/C84</f>
         <v>104.31015079900968</v>
       </c>
       <c r="K84" s="55"/>
-      <c r="L84" s="56">
-        <f>(0.001*1.3*55.84)*((C84/1000)/0.027)</f>
-        <v>0.23890833777777781</v>
-      </c>
+      <c r="L84" s="57"/>
       <c r="N84">
-        <f>C84</f>
+        <f t="shared" ref="N84:N111" si="45">C84</f>
         <v>88.86</v>
       </c>
       <c r="O84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>91.449999999998909</v>
       </c>
       <c r="P84">
@@ -47990,15 +47782,15 @@
         <v>7.1595136000000004</v>
       </c>
       <c r="V84">
-        <f>(S84-(S84*P84))</f>
+        <f t="shared" si="38"/>
         <v>90.064881355933281</v>
       </c>
-      <c r="W84" s="57">
-        <f>100*T84/V84</f>
+      <c r="W84" s="56">
+        <f t="shared" si="39"/>
         <v>0.84843724712202695</v>
       </c>
       <c r="X84">
-        <f>100*U84/V84</f>
+        <f t="shared" si="40"/>
         <v>7.9492844405199969</v>
       </c>
       <c r="AB84" s="46"/>
@@ -48007,43 +47799,42 @@
       <c r="AE84" s="46"/>
     </row>
     <row r="85" spans="1:35">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="48">
         <v>99.12</v>
       </c>
-      <c r="E85">
+      <c r="D85" s="48"/>
+      <c r="E85" s="48">
         <v>14059.01</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="48">
         <v>14060.46</v>
       </c>
       <c r="G85" s="48">
-        <f>E85</f>
+        <f t="shared" si="37"/>
         <v>14059.01</v>
       </c>
       <c r="I85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>90.23</v>
       </c>
       <c r="J85" s="55">
-        <f>100*I85/C85</f>
+        <f t="shared" si="44"/>
         <v>91.031073446327682</v>
       </c>
       <c r="K85" s="55"/>
-      <c r="L85" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L85" s="57"/>
       <c r="N85">
-        <f>C85</f>
+        <f t="shared" si="45"/>
         <v>99.12</v>
       </c>
       <c r="O85">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>14060.46</v>
       </c>
       <c r="P85">
@@ -48059,15 +47850,15 @@
         <v>9.4663871999999998</v>
       </c>
       <c r="V85">
-        <f>(S85-(S85*P85))</f>
+        <f t="shared" si="38"/>
         <v>90.23</v>
       </c>
-      <c r="W85" s="57">
-        <f>100*T85/V85</f>
+      <c r="W85" s="56">
+        <f t="shared" si="39"/>
         <v>1.2375768591377589</v>
       </c>
       <c r="X85">
-        <f>100*U85/V85</f>
+        <f t="shared" si="40"/>
         <v>10.491396652997892</v>
       </c>
       <c r="AB85" s="46">
@@ -48076,11 +47867,11 @@
       </c>
       <c r="AC85" s="46">
         <f>100*(((L86-L87)*0.027)/C86)</f>
-        <v>1.938840566998012</v>
+        <v>0</v>
       </c>
       <c r="AD85" s="46">
         <f>(1000*(((L86-L87)*0.027)/55.85))/(C86/1000)</f>
-        <v>347.15139964154201</v>
+        <v>0</v>
       </c>
       <c r="AE85" s="46">
         <f>1000000*(X87-X86)/55.85/100</f>
@@ -48088,49 +47879,46 @@
       </c>
     </row>
     <row r="86" spans="1:35">
-      <c r="A86" s="54"/>
-      <c r="B86" t="s">
+      <c r="A86" s="48"/>
+      <c r="B86" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="48">
         <v>100.6</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="48">
         <v>13754.03</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="48">
         <v>13823.77</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="48">
         <v>13824.73</v>
       </c>
       <c r="G86" s="48">
-        <f>E86</f>
+        <f t="shared" si="37"/>
         <v>13823.77</v>
       </c>
       <c r="I86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>63.25</v>
       </c>
       <c r="J86" s="55">
-        <f>100*I86/C86</f>
+        <f t="shared" si="44"/>
         <v>62.872763419483107</v>
       </c>
       <c r="K86" s="55"/>
-      <c r="L86" s="56">
-        <f>(0.001*348.5*55.84)*((C86/1000)/0.027)</f>
-        <v>72.507412740740747</v>
-      </c>
+      <c r="L86" s="57"/>
       <c r="M86">
         <f>(1000*((L86-L87)/55.85)*0.027)/(C86/1000)</f>
-        <v>347.15139964154201</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <f>C86</f>
+        <f t="shared" si="45"/>
         <v>100.6</v>
       </c>
       <c r="O86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>70.699999999998909</v>
       </c>
       <c r="P86">
@@ -48147,15 +47935,15 @@
         <v>4.8203670000000001</v>
       </c>
       <c r="V86">
-        <f>(S86-(S86*P86))</f>
+        <f t="shared" si="38"/>
         <v>89.999292786422885</v>
       </c>
-      <c r="W86" s="57">
-        <f>100*T86/V86</f>
+      <c r="W86" s="56">
+        <f t="shared" si="39"/>
         <v>0.69044875883040613</v>
       </c>
       <c r="X86">
-        <f>100*U86/V86</f>
+        <f t="shared" si="40"/>
         <v>5.3560054204416936</v>
       </c>
       <c r="AB86" s="46"/>
@@ -48164,45 +47952,42 @@
       <c r="AE86" s="46"/>
     </row>
     <row r="87" spans="1:35">
-      <c r="A87" s="54"/>
-      <c r="B87" t="s">
+      <c r="A87" s="48"/>
+      <c r="B87" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="48">
         <v>99.55</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="48">
         <v>16241.59</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="48">
         <v>16334.38</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="48">
         <v>16334.8</v>
       </c>
       <c r="G87" s="48">
-        <f>E87</f>
+        <f t="shared" si="37"/>
         <v>16334.38</v>
       </c>
       <c r="I87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>93.29</v>
       </c>
       <c r="J87" s="55">
-        <f>100*I87/C87</f>
+        <f t="shared" si="44"/>
         <v>93.711702661978904</v>
       </c>
       <c r="K87" s="55"/>
-      <c r="L87" s="56">
-        <f>(0.001*1.3*55.84)*((C87/1000)/0.027)</f>
-        <v>0.26764939259259268</v>
-      </c>
+      <c r="L87" s="57"/>
       <c r="N87">
-        <f>C87</f>
+        <f t="shared" si="45"/>
         <v>99.55</v>
       </c>
       <c r="O87">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>93.209999999999127</v>
       </c>
       <c r="P87">
@@ -48219,15 +48004,15 @@
         <v>7.6991829999999997</v>
       </c>
       <c r="V87">
-        <f>(S87-(S87*P87))</f>
+        <f t="shared" si="38"/>
         <v>99.635441476237389</v>
       </c>
-      <c r="W87" s="57">
-        <f>100*T87/V87</f>
+      <c r="W87" s="56">
+        <f t="shared" si="39"/>
         <v>0.95326621323449545</v>
       </c>
       <c r="X87">
-        <f>100*U87/V87</f>
+        <f t="shared" si="40"/>
         <v>7.7273537266718693</v>
       </c>
       <c r="AB87" s="46"/>
@@ -48236,43 +48021,42 @@
       <c r="AE87" s="46"/>
     </row>
     <row r="88" spans="1:35">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="48">
         <v>99.28</v>
       </c>
-      <c r="E88">
+      <c r="D88" s="48"/>
+      <c r="E88" s="48">
         <v>16064.73</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="48">
         <v>16065.95</v>
       </c>
       <c r="G88" s="48">
-        <f>E88</f>
+        <f t="shared" si="37"/>
         <v>16064.73</v>
       </c>
       <c r="I88">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>93.85</v>
       </c>
       <c r="J88" s="55">
-        <f>100*I88/C88</f>
+        <f t="shared" si="44"/>
         <v>94.530620467365026</v>
       </c>
       <c r="K88" s="55"/>
-      <c r="L88" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L88" s="57"/>
       <c r="N88">
-        <f>C88</f>
+        <f t="shared" si="45"/>
         <v>99.28</v>
       </c>
       <c r="O88">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>16065.95</v>
       </c>
       <c r="P88">
@@ -48288,15 +48072,15 @@
         <v>8.3493156000000006</v>
       </c>
       <c r="V88">
-        <f>(S88-(S88*P88))</f>
+        <f t="shared" si="38"/>
         <v>93.85</v>
       </c>
-      <c r="W88" s="57">
-        <f>100*T88/V88</f>
+      <c r="W88" s="56">
+        <f t="shared" si="39"/>
         <v>0.98461246670218439</v>
       </c>
       <c r="X88">
-        <f>100*U88/V88</f>
+        <f t="shared" si="40"/>
         <v>8.8964470964304763</v>
       </c>
       <c r="AB88" s="46">
@@ -48305,11 +48089,11 @@
       </c>
       <c r="AC88" s="46">
         <f>100*(((L89-L90)*0.027)/C89)</f>
-        <v>1.9387734436197659</v>
+        <v>0</v>
       </c>
       <c r="AD88" s="46">
         <f>(1000*(((L89-L90)*0.027)/55.85))/(C89/1000)</f>
-        <v>347.13938113156058</v>
+        <v>0</v>
       </c>
       <c r="AE88" s="46">
         <f>1000000*(X90-X89)/55.85/100</f>
@@ -48317,49 +48101,46 @@
       </c>
     </row>
     <row r="89" spans="1:35">
-      <c r="A89" s="54"/>
-      <c r="B89" t="s">
+      <c r="A89" s="48"/>
+      <c r="B89" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="48">
         <v>100.78</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="48">
         <v>16209.73</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="48">
         <v>16283.16</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="48">
         <v>16282.98</v>
       </c>
       <c r="G89" s="48">
-        <f>E89</f>
+        <f t="shared" si="37"/>
         <v>16283.16</v>
       </c>
       <c r="I89">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>62.72</v>
       </c>
       <c r="J89" s="55">
-        <f>100*I89/C89</f>
+        <f t="shared" si="44"/>
         <v>62.234570351260167</v>
       </c>
       <c r="K89" s="55"/>
-      <c r="L89" s="56">
-        <f>(0.001*348.5*55.84)*((C89/1000)/0.027)</f>
-        <v>72.637147674074072</v>
-      </c>
+      <c r="L89" s="57"/>
       <c r="M89">
         <f>(1000*((L89-L90)/55.85)*0.027)/(C89/1000)</f>
-        <v>347.13938113156058</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <f>C89</f>
+        <f t="shared" si="45"/>
         <v>100.78</v>
       </c>
       <c r="O89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>73.25</v>
       </c>
       <c r="P89">
@@ -48376,15 +48157,15 @@
         <v>4.2607249999999999</v>
       </c>
       <c r="V89">
-        <f>(S89-(S89*P89))</f>
+        <f t="shared" si="38"/>
         <v>86.292445051194534</v>
       </c>
-      <c r="W89" s="57">
-        <f>100*T89/V89</f>
+      <c r="W89" s="56">
+        <f t="shared" si="39"/>
         <v>0.56938066792348774</v>
       </c>
       <c r="X89">
-        <f>100*U89/V89</f>
+        <f t="shared" si="40"/>
         <v>4.9375411688384174</v>
       </c>
       <c r="AB89" s="46"/>
@@ -48393,45 +48174,42 @@
       <c r="AE89" s="46"/>
     </row>
     <row r="90" spans="1:35">
-      <c r="A90" s="54"/>
-      <c r="B90" t="s">
+      <c r="A90" s="48"/>
+      <c r="B90" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="48">
         <v>100.66</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="48">
         <v>16115.9</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="48">
         <v>16209.1</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="48">
         <v>16209.41</v>
       </c>
       <c r="G90" s="48">
-        <f>E90</f>
+        <f t="shared" si="37"/>
         <v>16209.1</v>
       </c>
       <c r="I90">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>95.91</v>
       </c>
       <c r="J90" s="55">
-        <f>100*I90/C90</f>
+        <f t="shared" si="44"/>
         <v>95.281144446652092</v>
       </c>
       <c r="K90" s="55"/>
-      <c r="L90" s="56">
-        <f>(0.001*1.3*55.84)*((C90/1000)/0.027)</f>
-        <v>0.27063373037037042</v>
-      </c>
+      <c r="L90" s="57"/>
       <c r="N90">
-        <f>C90</f>
+        <f t="shared" si="45"/>
         <v>100.66</v>
       </c>
       <c r="O90">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>93.510000000000218</v>
       </c>
       <c r="P90">
@@ -48448,15 +48226,15 @@
         <v>7.1516380000000002</v>
       </c>
       <c r="V90">
-        <f>(S90-(S90*P90))</f>
+        <f t="shared" si="38"/>
         <v>103.24350978504948</v>
       </c>
-      <c r="W90" s="57">
-        <f>100*T90/V90</f>
+      <c r="W90" s="56">
+        <f t="shared" si="39"/>
         <v>0.80062175503422994</v>
       </c>
       <c r="X90">
-        <f>100*U90/V90</f>
+        <f t="shared" si="40"/>
         <v>6.9269613314091503</v>
       </c>
       <c r="AB90" s="46"/>
@@ -48465,43 +48243,42 @@
       <c r="AE90" s="46"/>
     </row>
     <row r="91" spans="1:35">
-      <c r="A91" s="54" t="s">
+      <c r="A91" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="48">
         <v>99.11</v>
       </c>
-      <c r="E91">
+      <c r="D91" s="48"/>
+      <c r="E91" s="48">
         <v>13992.5</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="48">
         <v>13988.83</v>
       </c>
       <c r="G91" s="48">
-        <f>E91</f>
+        <f t="shared" si="37"/>
         <v>13992.5</v>
       </c>
       <c r="I91">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>94.04</v>
       </c>
       <c r="J91" s="55">
-        <f>100*I91/C91</f>
+        <f t="shared" si="44"/>
         <v>94.884471799011195</v>
       </c>
       <c r="K91" s="55"/>
-      <c r="L91" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L91" s="57"/>
       <c r="N91">
-        <f>C91</f>
+        <f t="shared" si="45"/>
         <v>99.11</v>
       </c>
       <c r="O91">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>13988.83</v>
       </c>
       <c r="P91">
@@ -48510,85 +48287,82 @@
       <c r="S91">
         <v>94.04</v>
       </c>
-      <c r="T91" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U91" s="54">
-        <v>5</v>
+      <c r="T91">
+        <v>0.47490199999999999</v>
+      </c>
+      <c r="U91">
+        <v>5.2295644000000001</v>
       </c>
       <c r="V91">
-        <f>(S91-(S91*P91))</f>
+        <f t="shared" si="38"/>
         <v>94.04</v>
       </c>
-      <c r="W91" s="57">
-        <f>100*T91/V91</f>
-        <v>0.53168864313058273</v>
+      <c r="W91" s="56">
+        <f t="shared" si="39"/>
+        <v>0.505</v>
       </c>
       <c r="X91">
-        <f>100*U91/V91</f>
-        <v>5.3168864313058268</v>
+        <f t="shared" si="40"/>
+        <v>5.5609999999999999</v>
       </c>
       <c r="AB91" s="46">
         <f>100*(X93-X92)/X91</f>
-        <v>-0.30709968691668676</v>
+        <v>34.845791468029105</v>
       </c>
       <c r="AC91" s="46">
         <f>100*(((L92-L93)*0.027)/C92)</f>
-        <v>1.9388656322254196</v>
+        <v>0</v>
       </c>
       <c r="AD91" s="46">
         <f>(1000*(((L92-L93)*0.027)/55.85))/(C92/1000)</f>
-        <v>347.15588759631504</v>
+        <v>0</v>
       </c>
       <c r="AE91" s="46">
         <f>1000000*(X93-X92)/55.85/100</f>
-        <v>-2.9235705611917626</v>
+        <v>346.96051271926558</v>
       </c>
     </row>
     <row r="92" spans="1:35">
-      <c r="A92" s="54"/>
-      <c r="B92" t="s">
+      <c r="A92" s="48"/>
+      <c r="B92" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="48">
         <v>100.79</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="48">
         <v>15970.86</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="48">
         <v>16036.42</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="48">
         <v>16035.73</v>
       </c>
       <c r="G92" s="48">
-        <f>E92</f>
+        <f t="shared" si="37"/>
         <v>16036.42</v>
       </c>
       <c r="I92">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>63.7</v>
       </c>
       <c r="J92" s="55">
-        <f>100*I92/C92</f>
+        <f t="shared" si="44"/>
         <v>63.200714356582992</v>
       </c>
       <c r="K92" s="55"/>
-      <c r="L92" s="56">
-        <f>(0.001*348.5*55.84)*((C92/1000)/0.027)</f>
-        <v>72.644355170370389</v>
-      </c>
+      <c r="L92" s="57"/>
       <c r="M92">
         <f>(1000*((L92-L93)/55.85)*0.027)/(C92/1000)</f>
-        <v>347.15588759631504</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <f>C92</f>
+        <f t="shared" si="45"/>
         <v>100.79</v>
       </c>
       <c r="O92">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>64.869999999998981</v>
       </c>
       <c r="P92">
@@ -48598,23 +48372,23 @@
       <c r="S92">
         <v>63.7</v>
       </c>
-      <c r="T92" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U92" s="54">
-        <v>5</v>
+      <c r="T92">
+        <v>0.268177</v>
+      </c>
+      <c r="U92">
+        <v>2.2944740000000001</v>
       </c>
       <c r="V92">
-        <f>(S92-(S92*P92))</f>
+        <f t="shared" si="38"/>
         <v>98.972144288578733</v>
       </c>
-      <c r="W92" s="57">
-        <f>100*T92/V92</f>
-        <v>0.50519265152235304</v>
+      <c r="W92" s="56">
+        <f t="shared" si="39"/>
+        <v>0.27096209941462013</v>
       </c>
       <c r="X92">
-        <f>100*U92/V92</f>
-        <v>5.0519265152235304</v>
+        <f t="shared" si="40"/>
+        <v>2.3183028078181991</v>
       </c>
       <c r="AB92" s="46"/>
       <c r="AC92" s="46"/>
@@ -48622,45 +48396,42 @@
       <c r="AE92" s="46"/>
     </row>
     <row r="93" spans="1:35">
-      <c r="A93" s="54"/>
-      <c r="B93" t="s">
+      <c r="A93" s="48"/>
+      <c r="B93" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="48">
         <v>99.39</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="48">
         <v>16263.41</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="48">
         <v>16356.4</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="48">
         <v>16355.69</v>
       </c>
       <c r="G93" s="48">
-        <f>E93</f>
+        <f t="shared" si="37"/>
         <v>16356.4</v>
       </c>
       <c r="I93">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>92.19</v>
       </c>
       <c r="J93" s="55">
-        <f>100*I93/C93</f>
+        <f t="shared" si="44"/>
         <v>92.755810443706608</v>
       </c>
       <c r="K93" s="55"/>
-      <c r="L93" s="56">
-        <f>(0.001*1.3*55.84)*((C93/1000)/0.027)</f>
-        <v>0.26721921777777785</v>
-      </c>
+      <c r="L93" s="57"/>
       <c r="N93">
-        <f>C93</f>
+        <f t="shared" si="45"/>
         <v>99.39</v>
       </c>
       <c r="O93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>92.280000000000655</v>
       </c>
       <c r="P93">
@@ -48670,23 +48441,23 @@
       <c r="S93">
         <v>92.19</v>
       </c>
-      <c r="T93" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U93" s="54">
-        <v>5</v>
+      <c r="T93">
+        <v>0.3844323</v>
+      </c>
+      <c r="U93">
+        <v>4.2259896000000001</v>
       </c>
       <c r="V93">
-        <f>(S93-(S93*P93))</f>
+        <f t="shared" si="38"/>
         <v>99.293065669700198</v>
       </c>
-      <c r="W93" s="57">
-        <f>100*T93/V93</f>
-        <v>0.5035598373639274</v>
+      <c r="W93" s="56">
+        <f t="shared" si="39"/>
+        <v>0.38716933293088113</v>
       </c>
       <c r="X93">
-        <f>100*U93/V93</f>
-        <v>5.0355983736392744</v>
+        <f t="shared" si="40"/>
+        <v>4.2560772713552977</v>
       </c>
       <c r="AB93" s="46"/>
       <c r="AC93" s="46"/>
@@ -48694,43 +48465,42 @@
       <c r="AE93" s="46"/>
     </row>
     <row r="94" spans="1:35">
-      <c r="A94" s="54" t="s">
+      <c r="A94" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="48">
         <v>99.55</v>
       </c>
-      <c r="E94">
+      <c r="D94" s="48"/>
+      <c r="E94" s="48">
         <v>13562.42</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="48">
         <v>13558.4</v>
       </c>
       <c r="G94" s="48">
-        <f>E94</f>
+        <f t="shared" si="37"/>
         <v>13562.42</v>
       </c>
       <c r="I94">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>89.56</v>
       </c>
       <c r="J94" s="55">
-        <f>100*I94/C94</f>
+        <f t="shared" si="44"/>
         <v>89.964841788046215</v>
       </c>
       <c r="K94" s="55"/>
-      <c r="L94" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L94" s="57"/>
       <c r="N94">
-        <f>C94</f>
+        <f t="shared" si="45"/>
         <v>99.55</v>
       </c>
       <c r="O94">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>13558.4</v>
       </c>
       <c r="P94">
@@ -48739,85 +48509,82 @@
       <c r="S94">
         <v>89.56</v>
       </c>
-      <c r="T94" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U94" s="54">
-        <v>5</v>
+      <c r="T94">
+        <v>0.67349119999999996</v>
+      </c>
+      <c r="U94">
+        <v>7.6027484000000003</v>
       </c>
       <c r="V94">
-        <f>(S94-(S94*P94))</f>
+        <f t="shared" si="38"/>
         <v>89.56</v>
       </c>
-      <c r="W94" s="57">
-        <f>100*T94/V94</f>
-        <v>0.55828494863778466</v>
+      <c r="W94" s="56">
+        <f t="shared" si="39"/>
+        <v>0.752</v>
       </c>
       <c r="X94">
-        <f>100*U94/V94</f>
-        <v>5.5828494863778468</v>
+        <f t="shared" si="40"/>
+        <v>8.4890000000000008</v>
       </c>
       <c r="AB94" s="46">
         <f>100*(X96-X95)/X94</f>
-        <v>-8.5341824545239984</v>
+        <v>37.70056883528563</v>
       </c>
       <c r="AC94" s="46">
         <f>100*(((L95-L96)*0.027)/C95)</f>
-        <v>1.9387655238209196</v>
+        <v>0</v>
       </c>
       <c r="AD94" s="46">
         <f>(1000*(((L95-L96)*0.027)/55.85))/(C95/1000)</f>
-        <v>347.13796308342336</v>
+        <v>0</v>
       </c>
       <c r="AE94" s="46">
         <f>1000000*(X96-X95)/55.85/100</f>
-        <v>-85.308963532487269</v>
+        <v>573.0351456450129</v>
       </c>
     </row>
     <row r="95" spans="1:35">
-      <c r="A95" s="54"/>
-      <c r="B95" t="s">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="48">
         <v>100.29</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="48">
         <v>13927.9</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="48">
         <v>13982.74</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="48">
         <v>13981.37</v>
       </c>
       <c r="G95" s="48">
-        <f>E95</f>
+        <f t="shared" si="37"/>
         <v>13982.74</v>
       </c>
       <c r="I95">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>49.4</v>
       </c>
       <c r="J95" s="55">
-        <f>100*I95/C95</f>
+        <f t="shared" si="44"/>
         <v>49.257154252667263</v>
       </c>
       <c r="K95" s="55"/>
-      <c r="L95" s="56">
-        <f>(0.001*348.5*55.84)*((C95/1000)/0.027)</f>
-        <v>72.28398035555557</v>
-      </c>
+      <c r="L95" s="57"/>
       <c r="M95">
         <f>(1000*((L95-L96)/55.85)*0.027)/(C95/1000)</f>
-        <v>347.13796308342336</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <f>C95</f>
+        <f t="shared" si="45"/>
         <v>100.29</v>
       </c>
       <c r="O95">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>53.470000000001164</v>
       </c>
       <c r="P95">
@@ -48827,23 +48594,23 @@
       <c r="S95">
         <v>49.4</v>
       </c>
-      <c r="T95" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U95" s="54">
-        <v>5</v>
+      <c r="T95">
+        <v>0.28997800000000001</v>
+      </c>
+      <c r="U95">
+        <v>2.7881360000000002</v>
       </c>
       <c r="V95">
-        <f>(S95-(S95*P95))</f>
+        <f t="shared" si="38"/>
         <v>92.656181036092988</v>
       </c>
-      <c r="W95" s="57">
-        <f>100*T95/V95</f>
-        <v>0.53962940670437476</v>
+      <c r="W95" s="56">
+        <f t="shared" si="39"/>
+        <v>0.3129613121946424</v>
       </c>
       <c r="X95">
-        <f>100*U95/V95</f>
-        <v>5.3962940670437476</v>
+        <f t="shared" si="40"/>
+        <v>3.0091203509822173</v>
       </c>
       <c r="AB95" s="46"/>
       <c r="AC95" s="46"/>
@@ -48851,45 +48618,42 @@
       <c r="AE95" s="46"/>
     </row>
     <row r="96" spans="1:35">
-      <c r="A96" s="54"/>
-      <c r="B96" t="s">
+      <c r="A96" s="48"/>
+      <c r="B96" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="48">
         <v>100.28</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="48">
         <v>13991</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="48">
         <v>14084.36</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="48">
         <v>14085.39</v>
       </c>
       <c r="G96" s="48">
-        <f>E96</f>
+        <f t="shared" si="37"/>
         <v>14084.36</v>
       </c>
       <c r="I96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>95.66</v>
       </c>
       <c r="J96" s="55">
-        <f>100*I96/C96</f>
+        <f t="shared" si="44"/>
         <v>95.392899880335065</v>
       </c>
       <c r="K96" s="55"/>
-      <c r="L96" s="56">
-        <f>(0.001*1.3*55.84)*((C96/1000)/0.027)</f>
-        <v>0.26961206518518527</v>
-      </c>
+      <c r="L96" s="57"/>
       <c r="N96">
-        <f>C96</f>
+        <f t="shared" si="45"/>
         <v>100.28</v>
       </c>
       <c r="O96">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>94.389999999999418</v>
       </c>
       <c r="P96">
@@ -48899,23 +48663,23 @@
       <c r="S96">
         <v>95.66</v>
       </c>
-      <c r="T96" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U96" s="54">
-        <v>5</v>
+      <c r="T96">
+        <v>0.57874300000000001</v>
+      </c>
+      <c r="U96">
+        <v>6.3106901999999998</v>
       </c>
       <c r="V96">
-        <f>(S96-(S96*P96))</f>
+        <f t="shared" si="38"/>
         <v>101.62924886110879</v>
       </c>
-      <c r="W96" s="57">
-        <f>100*T96/V96</f>
-        <v>0.49198435057148066</v>
+      <c r="W96" s="56">
+        <f t="shared" si="39"/>
+        <v>0.56946499800558081</v>
       </c>
       <c r="X96">
-        <f>100*U96/V96</f>
-        <v>4.9198435057148062</v>
+        <f t="shared" si="40"/>
+        <v>6.2095216394096147</v>
       </c>
       <c r="AB96" s="46"/>
       <c r="AC96" s="46"/>
@@ -48923,43 +48687,42 @@
       <c r="AE96" s="46"/>
     </row>
     <row r="97" spans="1:31">
-      <c r="A97" s="54" t="s">
+      <c r="A97" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="48">
         <v>99.72</v>
       </c>
-      <c r="E97">
+      <c r="D97" s="48"/>
+      <c r="E97" s="48">
         <v>16732.509999999998</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="48">
         <v>16729.689999999999</v>
       </c>
       <c r="G97" s="48">
-        <f>E97</f>
+        <f t="shared" si="37"/>
         <v>16732.509999999998</v>
       </c>
       <c r="I97">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>85.43</v>
       </c>
       <c r="J97" s="55">
-        <f>100*I97/C97</f>
+        <f t="shared" si="44"/>
         <v>85.669875651825109</v>
       </c>
       <c r="K97" s="55"/>
-      <c r="L97" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L97" s="57"/>
       <c r="N97">
-        <f>C97</f>
+        <f t="shared" si="45"/>
         <v>99.72</v>
       </c>
       <c r="O97">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>16729.689999999999</v>
       </c>
       <c r="P97">
@@ -48968,85 +48731,82 @@
       <c r="S97">
         <v>85.43</v>
       </c>
-      <c r="T97" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U97" s="54">
-        <v>5</v>
+      <c r="T97">
+        <v>0.59801000000000004</v>
+      </c>
+      <c r="U97">
+        <v>7.3837149000000002</v>
       </c>
       <c r="V97">
-        <f>(S97-(S97*P97))</f>
+        <f t="shared" si="38"/>
         <v>85.43</v>
       </c>
-      <c r="W97" s="57">
-        <f>100*T97/V97</f>
-        <v>0.58527449373756291</v>
+      <c r="W97" s="56">
+        <f t="shared" si="39"/>
+        <v>0.7</v>
       </c>
       <c r="X97">
-        <f>100*U97/V97</f>
-        <v>5.8527449373756291</v>
+        <f t="shared" si="40"/>
+        <v>8.6429999999999989</v>
       </c>
       <c r="AB97" s="46">
         <f>100*(X99-X98)/X97</f>
-        <v>-5.992598395238284</v>
+        <v>24.810412284164101</v>
       </c>
       <c r="AC97" s="46">
         <f>100*(((L98-L99)*0.027)/C98)</f>
-        <v>1.9387909226709323</v>
+        <v>0</v>
       </c>
       <c r="AD97" s="46">
         <f>(1000*(((L98-L99)*0.027)/55.85))/(C98/1000)</f>
-        <v>347.14251077366737</v>
+        <v>0</v>
       </c>
       <c r="AE97" s="46">
         <f>1000000*(X99-X98)/55.85/100</f>
-        <v>-62.798836024093426</v>
+        <v>383.95057004839805</v>
       </c>
     </row>
     <row r="98" spans="1:31">
-      <c r="A98" s="54"/>
-      <c r="B98" t="s">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="48">
         <v>100.04</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="48">
         <v>13785</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="48">
         <v>13846.24</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="48">
         <v>13843.46</v>
       </c>
       <c r="G98" s="48">
-        <f>E98</f>
+        <f t="shared" si="37"/>
         <v>13846.24</v>
       </c>
       <c r="I98">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>57.75</v>
       </c>
       <c r="J98" s="55">
-        <f>100*I98/C98</f>
+        <f t="shared" si="44"/>
         <v>57.726909236305474</v>
       </c>
       <c r="K98" s="55"/>
-      <c r="L98" s="56">
-        <f>(0.001*348.5*55.84)*((C98/1000)/0.027)</f>
-        <v>72.103792948148168</v>
-      </c>
+      <c r="L98" s="57"/>
       <c r="M98">
         <f>(1000*((L98-L99)/55.85)*0.027)/(C98/1000)</f>
-        <v>347.14251077366731</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <f>C98</f>
+        <f t="shared" si="45"/>
         <v>100.04</v>
       </c>
       <c r="O98">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>58.459999999999127</v>
       </c>
       <c r="P98">
@@ -49056,23 +48816,23 @@
       <c r="S98">
         <v>57.75</v>
       </c>
-      <c r="T98" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U98" s="54">
-        <v>5</v>
+      <c r="T98">
+        <v>0.33033000000000001</v>
+      </c>
+      <c r="U98">
+        <v>3.7069725</v>
       </c>
       <c r="V98">
-        <f>(S98-(S98*P98))</f>
+        <f t="shared" si="38"/>
         <v>98.825008552858137</v>
       </c>
-      <c r="W98" s="57">
-        <f>100*T98/V98</f>
-        <v>0.50594480822388899</v>
+      <c r="W98" s="56">
+        <f t="shared" si="39"/>
+        <v>0.3342574970011945</v>
       </c>
       <c r="X98">
-        <f>100*U98/V98</f>
-        <v>5.0594480822388901</v>
+        <f t="shared" si="40"/>
+        <v>3.7510469812074607</v>
       </c>
       <c r="AB98" s="46"/>
       <c r="AC98" s="46"/>
@@ -49080,45 +48840,42 @@
       <c r="AE98" s="46"/>
     </row>
     <row r="99" spans="1:31">
-      <c r="A99" s="54"/>
-      <c r="B99" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="48">
         <v>99.68</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="48">
         <v>16133.85</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="48">
         <v>16225.73</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="48">
         <v>16225.93</v>
       </c>
       <c r="G99" s="48">
-        <f>E99</f>
+        <f t="shared" si="37"/>
         <v>16225.73</v>
       </c>
       <c r="I99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>98.09</v>
       </c>
       <c r="J99" s="55">
-        <f>100*I99/C99</f>
+        <f t="shared" si="44"/>
         <v>98.404895666131608</v>
       </c>
       <c r="K99" s="55"/>
-      <c r="L99" s="56">
-        <f>(0.001*1.3*55.84)*((C99/1000)/0.027)</f>
-        <v>0.26799890962962969</v>
-      </c>
+      <c r="L99" s="57"/>
       <c r="N99">
-        <f>C99</f>
+        <f t="shared" si="45"/>
         <v>99.68</v>
       </c>
       <c r="O99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>92.079999999999927</v>
       </c>
       <c r="P99">
@@ -49128,23 +48885,23 @@
       <c r="S99">
         <v>98.09</v>
       </c>
-      <c r="T99" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U99" s="54">
-        <v>5</v>
+      <c r="T99">
+        <v>0.53655229999999998</v>
+      </c>
+      <c r="U99">
+        <v>6.2601038000000004</v>
       </c>
       <c r="V99">
-        <f>(S99-(S99*P99))</f>
+        <f t="shared" si="38"/>
         <v>106.18604691572556</v>
       </c>
-      <c r="W99" s="57">
-        <f>100*T99/V99</f>
-        <v>0.47087165830443284</v>
+      <c r="W99" s="56">
+        <f t="shared" si="39"/>
+        <v>0.50529454253611505</v>
       </c>
       <c r="X99">
-        <f>100*U99/V99</f>
-        <v>4.7087165830443283</v>
+        <f t="shared" si="40"/>
+        <v>5.8954109149277638</v>
       </c>
       <c r="AB99" s="46"/>
       <c r="AC99" s="46"/>
@@ -49152,43 +48909,42 @@
       <c r="AE99" s="46"/>
     </row>
     <row r="100" spans="1:31">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="48">
         <v>99.55</v>
       </c>
-      <c r="E100">
+      <c r="D100" s="48"/>
+      <c r="E100" s="48">
         <v>14025.68</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="48">
         <v>14022.57</v>
       </c>
       <c r="G100" s="48">
-        <f>E100</f>
+        <f t="shared" si="37"/>
         <v>14025.68</v>
       </c>
       <c r="I100">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>99.1</v>
       </c>
       <c r="J100" s="55">
-        <f>100*I100/C100</f>
+        <f t="shared" si="44"/>
         <v>99.547965846308387</v>
       </c>
       <c r="K100" s="55"/>
-      <c r="L100" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L100" s="57"/>
       <c r="N100">
-        <f>C100</f>
+        <f t="shared" si="45"/>
         <v>99.55</v>
       </c>
       <c r="O100">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>14022.57</v>
       </c>
       <c r="P100">
@@ -49197,85 +48953,82 @@
       <c r="S100">
         <v>99.1</v>
       </c>
-      <c r="T100" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U100" s="54">
-        <v>5</v>
+      <c r="T100">
+        <v>0.75514199999999998</v>
+      </c>
+      <c r="U100">
+        <v>7.728809</v>
       </c>
       <c r="V100">
-        <f>(S100-(S100*P100))</f>
+        <f t="shared" si="38"/>
         <v>99.1</v>
       </c>
-      <c r="W100" s="57">
-        <f>100*T100/V100</f>
-        <v>0.50454086781029261</v>
+      <c r="W100" s="56">
+        <f t="shared" si="39"/>
+        <v>0.76200000000000012</v>
       </c>
       <c r="X100">
-        <f>100*U100/V100</f>
-        <v>5.0454086781029268</v>
+        <f t="shared" si="40"/>
+        <v>7.7990000000000004</v>
       </c>
       <c r="AB100" s="46">
         <f>100*(X102-X101)/X100</f>
-        <v>5.0404467074472281</v>
+        <v>38.214871746467381</v>
       </c>
       <c r="AC100" s="46">
         <f>100*(((L101-L102)*0.027)/C101)</f>
-        <v>1.9387705710026837</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="46">
         <f>(1000*(((L101-L102)*0.027)/55.85))/(C101/1000)</f>
-        <v>347.13886678651448</v>
+        <v>0</v>
       </c>
       <c r="AE100" s="46">
         <f>1000000*(X102-X101)/55.85/100</f>
-        <v>45.534670652228414</v>
+        <v>533.63972202452851</v>
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="54"/>
-      <c r="B101" t="s">
+      <c r="A101" s="48"/>
+      <c r="B101" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="48">
         <v>100.63</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="48">
         <v>15633.2</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="48">
         <v>15676.37</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="48">
         <v>15675.15</v>
       </c>
       <c r="G101" s="48">
-        <f>E101</f>
+        <f t="shared" si="37"/>
         <v>15676.37</v>
       </c>
       <c r="I101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>51.9</v>
       </c>
       <c r="J101" s="55">
-        <f>100*I101/C101</f>
+        <f t="shared" si="44"/>
         <v>51.575077014806723</v>
       </c>
       <c r="K101" s="55"/>
-      <c r="L101" s="56">
-        <f>(0.001*348.5*55.84)*((C101/1000)/0.027)</f>
-        <v>72.529035229629642</v>
-      </c>
+      <c r="L101" s="57"/>
       <c r="M101">
         <f>(1000*((L101-L102)/55.85)*0.027)/(C101/1000)</f>
-        <v>347.13886678651448</v>
+        <v>0</v>
       </c>
       <c r="N101">
-        <f>C101</f>
+        <f t="shared" si="45"/>
         <v>100.63</v>
       </c>
       <c r="O101">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>41.949999999998909</v>
       </c>
       <c r="P101">
@@ -49285,23 +49038,23 @@
       <c r="S101">
         <v>51.9</v>
       </c>
-      <c r="T101" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U101" s="54">
-        <v>5</v>
+      <c r="T101">
+        <v>0.336312</v>
+      </c>
+      <c r="U101">
+        <v>2.9006910000000001</v>
       </c>
       <c r="V101">
-        <f>(S101-(S101*P101))</f>
+        <f t="shared" si="38"/>
         <v>124.49814064362658</v>
       </c>
-      <c r="W101" s="57">
-        <f>100*T101/V101</f>
-        <v>0.40161242361943372</v>
+      <c r="W101" s="56">
+        <f t="shared" si="39"/>
+        <v>0.27013415482459802</v>
       </c>
       <c r="X101">
-        <f>100*U101/V101</f>
-        <v>4.0161242361943374</v>
+        <f t="shared" si="40"/>
+        <v>2.3299070853621577</v>
       </c>
       <c r="AB101" s="46"/>
       <c r="AC101" s="46"/>
@@ -49309,45 +49062,42 @@
       <c r="AE101" s="46"/>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="54"/>
-      <c r="B102" t="s">
+      <c r="A102" s="48"/>
+      <c r="B102" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="48">
         <v>100.55</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="48">
         <v>15939.52</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="48">
         <v>16023.46</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="48">
         <v>16022.47</v>
       </c>
       <c r="G102" s="48">
-        <f>E102</f>
+        <f t="shared" si="37"/>
         <v>16023.46</v>
       </c>
       <c r="I102">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>96.59</v>
       </c>
       <c r="J102" s="55">
-        <f>100*I102/C102</f>
+        <f t="shared" si="44"/>
         <v>96.06166086524118</v>
       </c>
       <c r="K102" s="55"/>
-      <c r="L102" s="56">
-        <f>(0.001*1.3*55.84)*((C102/1000)/0.027)</f>
-        <v>0.27033798518518526</v>
-      </c>
+      <c r="L102" s="57"/>
       <c r="N102">
-        <f>C102</f>
+        <f t="shared" si="45"/>
         <v>100.55</v>
       </c>
       <c r="O102">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>82.949999999998909</v>
       </c>
       <c r="P102">
@@ -49357,23 +49107,23 @@
       <c r="S102">
         <v>96.59</v>
       </c>
-      <c r="T102" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U102" s="54">
-        <v>5</v>
+      <c r="T102">
+        <v>0.59692619999999996</v>
+      </c>
+      <c r="U102">
+        <v>6.2174982999999999</v>
       </c>
       <c r="V102">
-        <f>(S102-(S102*P102))</f>
+        <f t="shared" si="38"/>
         <v>117.08408077155067</v>
       </c>
-      <c r="W102" s="57">
-        <f>100*T102/V102</f>
-        <v>0.4270435371787033</v>
+      <c r="W102" s="56">
+        <f t="shared" si="39"/>
+        <v>0.50982695176528414</v>
       </c>
       <c r="X102">
-        <f>100*U102/V102</f>
-        <v>4.2704353717870331</v>
+        <f t="shared" si="40"/>
+        <v>5.3102849328691493</v>
       </c>
       <c r="AB102" s="46"/>
       <c r="AC102" s="46"/>
@@ -49381,44 +49131,43 @@
       <c r="AE102" s="46"/>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="48">
         <v>100.6</v>
       </c>
-      <c r="E103">
-        <v>16338.22</v>
-      </c>
-      <c r="F103">
-        <v>16334.84</v>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48">
+        <v>16286.29</v>
+      </c>
+      <c r="F103" s="48">
+        <v>16283.32</v>
       </c>
       <c r="G103" s="48">
-        <f>E103</f>
-        <v>16338.22</v>
+        <f t="shared" si="37"/>
+        <v>16286.29</v>
       </c>
       <c r="I103">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>97.87</v>
       </c>
       <c r="J103" s="55">
-        <f>100*I103/C103</f>
+        <f t="shared" si="44"/>
         <v>97.286282306163031</v>
       </c>
       <c r="K103" s="55"/>
-      <c r="L103" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L103" s="57"/>
       <c r="N103">
-        <f>C103</f>
+        <f t="shared" si="45"/>
         <v>100.6</v>
       </c>
       <c r="O103">
-        <f t="shared" si="34"/>
-        <v>16334.84</v>
+        <f t="shared" si="43"/>
+        <v>16283.32</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -49426,111 +49175,108 @@
       <c r="S103">
         <v>97.87</v>
       </c>
-      <c r="T103" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U103" s="54">
-        <v>5</v>
+      <c r="T103">
+        <v>0.96891300000000002</v>
+      </c>
+      <c r="U103">
+        <v>8.9130208999999994</v>
       </c>
       <c r="V103">
-        <f>(S103-(S103*P103))</f>
+        <f t="shared" si="38"/>
         <v>97.87</v>
       </c>
-      <c r="W103" s="57">
-        <f>100*T103/V103</f>
-        <v>0.51088178195565548</v>
+      <c r="W103" s="56">
+        <f t="shared" si="39"/>
+        <v>0.99</v>
       </c>
       <c r="X103">
-        <f>100*U103/V103</f>
-        <v>5.1088178195565543</v>
+        <f t="shared" si="40"/>
+        <v>9.1069999999999993</v>
       </c>
       <c r="AB103" s="46">
         <f>100*(X105-X104)/X103</f>
-        <v>-202.67689307941319</v>
+        <v>26.118575820796426</v>
       </c>
       <c r="AC103" s="46">
         <f>100*(((L104-L105)*0.027)/C104)</f>
-        <v>1.9386914747474755</v>
+        <v>0</v>
       </c>
       <c r="AD103" s="46">
         <f>(1000*(((L104-L105)*0.027)/55.85))/(C104/1000)</f>
-        <v>347.12470452058642</v>
+        <v>0</v>
       </c>
       <c r="AE103" s="46">
         <f>1000000*(X105-X104)/55.85/100</f>
-        <v>-1853.9647680867763</v>
+        <v>425.89412712621851</v>
       </c>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="54"/>
-      <c r="B104" t="s">
+      <c r="A104" s="48"/>
+      <c r="B104" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="48">
         <v>99</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="48">
         <v>16219.8</v>
       </c>
-      <c r="E104">
-        <v>16402.22</v>
-      </c>
-      <c r="F104">
-        <v>16400.830000000002</v>
+      <c r="E104" s="48">
+        <v>16285.3</v>
+      </c>
+      <c r="F104" s="48">
+        <v>16285.59</v>
       </c>
       <c r="G104" s="48">
-        <f>E104</f>
-        <v>16402.22</v>
+        <f t="shared" si="37"/>
+        <v>16285.3</v>
       </c>
       <c r="I104">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>61.14</v>
       </c>
       <c r="J104" s="55">
-        <f>100*I104/C104</f>
+        <f t="shared" si="44"/>
         <v>61.757575757575758</v>
       </c>
       <c r="K104" s="55"/>
-      <c r="L104" s="56">
-        <f>(0.001*348.5*55.84)*((C104/1000)/0.027)</f>
-        <v>71.354213333333348</v>
-      </c>
+      <c r="L104" s="57"/>
       <c r="M104">
         <f>(1000*((L104-L105)/55.85)*0.027)/(C104/1000)</f>
-        <v>347.12470452058642</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <f>C104</f>
+        <f t="shared" si="45"/>
         <v>99</v>
       </c>
       <c r="O104">
-        <f t="shared" si="34"/>
-        <v>181.03000000000247</v>
+        <f t="shared" si="43"/>
+        <v>65.790000000000873</v>
       </c>
       <c r="P104">
         <f>(O104-N104)/O104</f>
-        <v>0.45312931558306002</v>
+        <v>-0.50478796169628648</v>
       </c>
       <c r="S104">
         <v>61.14</v>
       </c>
-      <c r="T104" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U104" s="54">
-        <v>5</v>
+      <c r="T104">
+        <v>0.56126520000000002</v>
+      </c>
+      <c r="U104">
+        <v>4.3984116000000002</v>
       </c>
       <c r="V104">
-        <f>(S104-(S104*P104))</f>
-        <v>33.435673645251711</v>
-      </c>
-      <c r="W104" s="57">
-        <f>100*T104/V104</f>
-        <v>1.495408781964249</v>
+        <f t="shared" si="38"/>
+        <v>92.002735978110962</v>
+      </c>
+      <c r="W104" s="56">
+        <f t="shared" si="39"/>
+        <v>0.6100527272727353</v>
       </c>
       <c r="X104">
-        <f>100*U104/V104</f>
-        <v>14.954087819642488</v>
+        <f t="shared" si="40"/>
+        <v>4.7807400000000628</v>
       </c>
       <c r="AB104" s="46"/>
       <c r="AC104" s="46"/>
@@ -49538,71 +49284,68 @@
       <c r="AE104" s="46"/>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="54"/>
-      <c r="B105" t="s">
+      <c r="A105" s="48"/>
+      <c r="B105" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="48">
         <v>100</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="48">
         <v>13739.6</v>
       </c>
-      <c r="E105">
-        <v>13826.04</v>
-      </c>
-      <c r="F105">
-        <v>13823.94</v>
+      <c r="E105" s="48">
+        <v>13832.43</v>
+      </c>
+      <c r="F105" s="48">
+        <v>13830.93</v>
       </c>
       <c r="G105" s="48">
-        <f>E105</f>
-        <v>13826.04</v>
+        <f t="shared" si="37"/>
+        <v>13832.43</v>
       </c>
       <c r="I105">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>91.68</v>
       </c>
       <c r="J105" s="55">
-        <f>100*I105/C105</f>
+        <f t="shared" si="44"/>
         <v>91.68</v>
       </c>
       <c r="K105" s="55"/>
-      <c r="L105" s="56">
-        <f>(0.001*1.3*55.84)*((C105/1000)/0.027)</f>
-        <v>0.26885925925925935</v>
-      </c>
+      <c r="L105" s="57"/>
       <c r="N105">
-        <f>C105</f>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="O105">
-        <f t="shared" si="34"/>
-        <v>84.340000000000146</v>
+        <f t="shared" si="43"/>
+        <v>91.329999999999927</v>
       </c>
       <c r="P105">
         <f>(O105-N105)/O105</f>
-        <v>-0.18567702157931976</v>
+        <v>-9.4930471915034273E-2</v>
       </c>
       <c r="S105">
         <v>91.68</v>
       </c>
-      <c r="T105" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U105" s="54">
-        <v>5</v>
+      <c r="T105">
+        <v>0.82328639999999997</v>
+      </c>
+      <c r="U105">
+        <v>7.1867951999999997</v>
       </c>
       <c r="V105">
-        <f>(S105-(S105*P105))</f>
-        <v>108.70286933839205</v>
-      </c>
-      <c r="W105" s="57">
-        <f>100*T105/V105</f>
-        <v>0.45996945898778435</v>
+        <f t="shared" si="38"/>
+        <v>100.38322566517036</v>
+      </c>
+      <c r="W105" s="56">
+        <f t="shared" si="39"/>
+        <v>0.82014339999999919</v>
       </c>
       <c r="X105">
-        <f>100*U105/V105</f>
-        <v>4.599694589877843</v>
+        <f t="shared" si="40"/>
+        <v>7.1593586999999932</v>
       </c>
       <c r="AB105" s="46"/>
       <c r="AC105" s="46"/>
@@ -49610,27 +49353,28 @@
       <c r="AE105" s="46"/>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="54" t="s">
+      <c r="A106" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="48">
         <v>100.9</v>
       </c>
-      <c r="E106">
-        <v>16320.3</v>
-      </c>
-      <c r="F106">
-        <v>16316.54</v>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48">
+        <v>16338.22</v>
+      </c>
+      <c r="F106" s="48">
+        <v>16334.84</v>
       </c>
       <c r="G106" s="48">
-        <f>E106</f>
-        <v>16320.3</v>
+        <f t="shared" si="37"/>
+        <v>16338.22</v>
       </c>
       <c r="I106">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>96.06</v>
       </c>
       <c r="J106" s="55">
@@ -49638,16 +49382,14 @@
         <v>95.203171456888001</v>
       </c>
       <c r="K106" s="55"/>
-      <c r="L106" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L106" s="57"/>
       <c r="N106">
-        <f>C106</f>
+        <f t="shared" si="45"/>
         <v>100.9</v>
       </c>
       <c r="O106">
-        <f t="shared" si="34"/>
-        <v>16316.54</v>
+        <f t="shared" si="43"/>
+        <v>16334.84</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -49655,64 +49397,64 @@
       <c r="S106">
         <v>96.06</v>
       </c>
-      <c r="T106" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U106" s="54">
-        <v>5</v>
+      <c r="T106">
+        <v>0.93850619999999996</v>
+      </c>
+      <c r="U106">
+        <v>8.4609647999999993</v>
       </c>
       <c r="V106">
-        <f>(S106-(S106*P106))</f>
+        <f t="shared" si="38"/>
         <v>96.06</v>
       </c>
-      <c r="W106" s="57">
-        <f>100*T106/V106</f>
-        <v>0.52050801582344364</v>
+      <c r="W106" s="56">
+        <f t="shared" si="39"/>
+        <v>0.97699999999999987</v>
       </c>
       <c r="X106">
-        <f>100*U106/V106</f>
-        <v>5.2050801582344368</v>
+        <f t="shared" si="40"/>
+        <v>8.8079999999999998</v>
       </c>
       <c r="AB106" s="46">
         <f>100*(X108-X107)/X106</f>
-        <v>2367.4420059221252</v>
+        <v>36.587026575130473</v>
       </c>
       <c r="AC106" s="46">
         <f>100*(((L107-L108)*0.027)/C107)</f>
-        <v>1.9386990728370221</v>
+        <v>0</v>
       </c>
       <c r="AD106" s="46">
         <f>(1000*(((L107-L108)*0.027)/55.85))/(C107/1000)</f>
-        <v>347.12606496634237</v>
+        <v>0</v>
       </c>
       <c r="AE106" s="46">
         <f>1000000*(X108-X107)/55.85/100</f>
-        <v>22063.966715838829</v>
+        <v>577.00721588853935</v>
       </c>
     </row>
     <row r="107" spans="1:31">
-      <c r="A107" s="54"/>
-      <c r="B107" t="s">
+      <c r="A107" s="48"/>
+      <c r="B107" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="48">
         <v>99.4</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="48">
         <v>16380.5</v>
       </c>
-      <c r="E107">
-        <v>16391.560000000001</v>
-      </c>
-      <c r="F107">
-        <v>16391.77</v>
+      <c r="E107" s="48">
+        <v>16402.22</v>
+      </c>
+      <c r="F107" s="48">
+        <v>16400.830000000002</v>
       </c>
       <c r="G107" s="48">
-        <f>E107</f>
-        <v>16391.560000000001</v>
+        <f t="shared" si="37"/>
+        <v>16402.22</v>
       </c>
       <c r="I107">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>60.65</v>
       </c>
       <c r="J107" s="55">
@@ -49720,46 +49462,43 @@
         <v>61.016096579476859</v>
       </c>
       <c r="K107" s="55"/>
-      <c r="L107" s="56">
-        <f>(0.001*348.5*55.84)*((C107/1000)/0.027)</f>
-        <v>71.642513185185194</v>
-      </c>
+      <c r="L107" s="57"/>
       <c r="M107">
         <f>(1000*((L107-L108)/55.85)*0.027)/(C107/1000)</f>
-        <v>347.12606496634243</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <f>C107</f>
+        <f t="shared" si="45"/>
         <v>99.4</v>
       </c>
       <c r="O107">
-        <f t="shared" si="34"/>
-        <v>11.270000000000437</v>
+        <f t="shared" si="43"/>
+        <v>20.330000000001746</v>
       </c>
       <c r="P107">
         <f>(O107-N107)/O107</f>
-        <v>-7.8198757763971747</v>
+        <v>-3.8893261190354877</v>
       </c>
       <c r="S107">
         <v>60.65</v>
       </c>
-      <c r="T107" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U107" s="54">
-        <v>5</v>
+      <c r="T107">
+        <v>0.4700375</v>
+      </c>
+      <c r="U107">
+        <v>4.0435354999999999</v>
       </c>
       <c r="V107">
-        <f>(S107-(S107*P107))</f>
-        <v>534.92546583848866</v>
-      </c>
-      <c r="W107" s="57">
-        <f>100*T107/V107</f>
-        <v>9.3470965944060361E-2</v>
+        <f t="shared" si="38"/>
+        <v>296.5376291195023</v>
+      </c>
+      <c r="W107" s="56">
+        <f t="shared" si="39"/>
+        <v>0.15850855130786071</v>
       </c>
       <c r="X107">
-        <f>100*U107/V107</f>
-        <v>0.93470965944060369</v>
+        <f t="shared" si="40"/>
+        <v>1.3635825955735579</v>
       </c>
       <c r="AB107" s="46"/>
       <c r="AC107" s="46"/>
@@ -49767,28 +49506,28 @@
       <c r="AE107" s="46"/>
     </row>
     <row r="108" spans="1:31">
-      <c r="A108" s="54"/>
-      <c r="B108" t="s">
+      <c r="A108" s="48"/>
+      <c r="B108" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="48">
         <v>100.3</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="48">
         <v>13763.7</v>
       </c>
-      <c r="E108">
-        <v>16098.75</v>
-      </c>
-      <c r="F108">
-        <v>16098.97</v>
+      <c r="E108" s="48">
+        <v>13826.04</v>
+      </c>
+      <c r="F108" s="48">
+        <v>13823.94</v>
       </c>
       <c r="G108" s="48">
-        <f>E108</f>
-        <v>16098.75</v>
+        <f t="shared" si="37"/>
+        <v>13826.04</v>
       </c>
       <c r="I108">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>93.76</v>
       </c>
       <c r="J108" s="55">
@@ -49796,42 +49535,39 @@
         <v>93.479561316051843</v>
       </c>
       <c r="K108" s="55"/>
-      <c r="L108" s="56">
-        <f>(0.001*1.3*55.84)*((C108/1000)/0.027)</f>
-        <v>0.26966583703703711</v>
-      </c>
+      <c r="L108" s="57"/>
       <c r="N108">
-        <f>C108</f>
+        <f t="shared" si="45"/>
         <v>100.3</v>
       </c>
       <c r="O108">
-        <f t="shared" si="34"/>
-        <v>2335.2699999999986</v>
+        <f t="shared" si="43"/>
+        <v>60.239999999999782</v>
       </c>
       <c r="P108">
         <f>(O108-N108)/O108</f>
-        <v>0.95704993426884244</v>
+        <v>-0.66500664010624766</v>
       </c>
       <c r="S108">
         <v>93.76</v>
       </c>
-      <c r="T108" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U108" s="54">
-        <v>5</v>
+      <c r="T108">
+        <v>0.76414400000000005</v>
+      </c>
+      <c r="U108">
+        <v>7.1595136000000004</v>
       </c>
       <c r="V108">
-        <f>(S108-(S108*P108))</f>
-        <v>4.0269981629533333</v>
-      </c>
-      <c r="W108" s="57">
-        <f>100*T108/V108</f>
-        <v>12.416196376740047</v>
+        <f t="shared" si="38"/>
+        <v>156.11102257636179</v>
+      </c>
+      <c r="W108" s="56">
+        <f t="shared" si="39"/>
+        <v>0.48948753738783474</v>
       </c>
       <c r="X108">
-        <f>100*U108/V108</f>
-        <v>124.16196376740047</v>
+        <f t="shared" si="40"/>
+        <v>4.5861678963110499</v>
       </c>
       <c r="AB108" s="46"/>
       <c r="AC108" s="46"/>
@@ -49839,43 +49575,42 @@
       <c r="AE108" s="46"/>
     </row>
     <row r="109" spans="1:31">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="48">
         <v>99.1</v>
       </c>
-      <c r="E109">
+      <c r="D109" s="48"/>
+      <c r="E109" s="48">
         <v>13881.45</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="48">
         <v>13884.52</v>
       </c>
       <c r="G109" s="48">
-        <f>E109</f>
+        <f t="shared" si="37"/>
         <v>13881.45</v>
       </c>
       <c r="I109">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>84.41</v>
       </c>
       <c r="J109" s="55">
-        <f>100*I109/C109</f>
+        <f t="shared" si="44"/>
         <v>85.176589303733607</v>
       </c>
       <c r="K109" s="55"/>
-      <c r="L109" s="56" t="s">
-        <v>72</v>
-      </c>
+      <c r="L109" s="57"/>
       <c r="N109">
-        <f>C109</f>
+        <f t="shared" si="45"/>
         <v>99.1</v>
       </c>
       <c r="O109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>13884.52</v>
       </c>
       <c r="P109">
@@ -49884,85 +49619,82 @@
       <c r="S109">
         <v>84.41</v>
       </c>
-      <c r="T109" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U109" s="54">
-        <v>5</v>
+      <c r="T109">
+        <v>0.99941440000000004</v>
+      </c>
+      <c r="U109">
+        <v>8.2747122999999991</v>
       </c>
       <c r="V109">
-        <f>(S109-(S109*P109))</f>
+        <f t="shared" si="38"/>
         <v>84.41</v>
       </c>
-      <c r="W109" s="57">
-        <f>100*T109/V109</f>
-        <v>0.59234687833195121</v>
+      <c r="W109" s="56">
+        <f t="shared" si="39"/>
+        <v>1.1839999999999999</v>
       </c>
       <c r="X109">
-        <f>100*U109/V109</f>
-        <v>5.9234687833195121</v>
+        <f t="shared" si="40"/>
+        <v>9.802999999999999</v>
       </c>
       <c r="AB109" s="46">
         <f>100*(X111-X110)/X109</f>
-        <v>-12.231755284447749</v>
+        <v>28.160692812586017</v>
       </c>
       <c r="AC109" s="46">
         <f>100*(((L110-L111)*0.027)/C110)</f>
-        <v>1.9387285040000006</v>
+        <v>0</v>
       </c>
       <c r="AD109" s="46">
         <f>(1000*(((L110-L111)*0.027)/55.85))/(C110/1000)</f>
-        <v>347.13133464637428</v>
+        <v>0</v>
       </c>
       <c r="AE109" s="46">
         <f>1000000*(X111-X110)/55.85/100</f>
-        <v>-129.73038602082315</v>
+        <v>494.28696802467442</v>
       </c>
     </row>
     <row r="110" spans="1:31">
-      <c r="A110" s="54"/>
-      <c r="B110" t="s">
+      <c r="A110" s="48"/>
+      <c r="B110" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="48">
         <v>100</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="48">
         <v>16471.32</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="48">
         <v>16541.830000000002</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="48">
         <v>16541.45</v>
       </c>
       <c r="G110" s="48">
-        <f>E110</f>
+        <f t="shared" si="37"/>
         <v>16541.830000000002</v>
       </c>
       <c r="I110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>61.74</v>
       </c>
       <c r="J110" s="55">
-        <f>100*I110/C110</f>
+        <f t="shared" si="44"/>
         <v>61.74</v>
       </c>
       <c r="K110" s="55"/>
-      <c r="L110" s="56">
-        <f>(0.001*348.5*55.84)*((C110/1000)/0.027)</f>
-        <v>72.074962962962985</v>
-      </c>
+      <c r="L110" s="57"/>
       <c r="M110">
         <f>(1000*((L110-L111)/55.85)*0.027)/(C110/1000)</f>
-        <v>347.13133464637428</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <f>C110</f>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="O110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>70.130000000001019</v>
       </c>
       <c r="P110">
@@ -49972,23 +49704,23 @@
       <c r="S110">
         <v>61.74</v>
       </c>
-      <c r="T110" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U110" s="54">
-        <v>5</v>
+      <c r="T110">
+        <v>0.54207720000000004</v>
+      </c>
+      <c r="U110">
+        <v>4.1242320000000001</v>
       </c>
       <c r="V110">
-        <f>(S110-(S110*P110))</f>
+        <f t="shared" si="38"/>
         <v>88.036503636103106</v>
       </c>
-      <c r="W110" s="57">
-        <f>100*T110/V110</f>
-        <v>0.56794622610949963</v>
+      <c r="W110" s="56">
+        <f t="shared" si="39"/>
+        <v>0.61574140000000888</v>
       </c>
       <c r="X110">
-        <f>100*U110/V110</f>
-        <v>5.6794622610949963</v>
+        <f t="shared" si="40"/>
+        <v>4.6846840000000673</v>
       </c>
       <c r="AB110" s="46"/>
       <c r="AC110" s="46"/>
@@ -49996,24 +49728,24 @@
       <c r="AE110" s="46"/>
     </row>
     <row r="111" spans="1:31">
-      <c r="A111" s="54"/>
-      <c r="B111" t="s">
+      <c r="A111" s="48"/>
+      <c r="B111" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="48">
         <v>100.5</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="48">
         <v>16254.09</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="48">
         <v>16344.99</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="48">
         <v>16344.82</v>
       </c>
       <c r="G111" s="48">
-        <f>E111</f>
+        <f t="shared" si="37"/>
         <v>16344.99</v>
       </c>
       <c r="I111">
@@ -50021,20 +49753,17 @@
         <v>91.1</v>
       </c>
       <c r="J111" s="55">
-        <f>100*I111/C111</f>
+        <f t="shared" si="44"/>
         <v>90.646766169154233</v>
       </c>
       <c r="K111" s="55"/>
-      <c r="L111" s="56">
-        <f>(0.001*1.3*55.84)*((C111/1000)/0.027)</f>
-        <v>0.27020355555555564</v>
-      </c>
+      <c r="L111" s="57"/>
       <c r="N111">
-        <f>C111</f>
+        <f t="shared" si="45"/>
         <v>100.5</v>
       </c>
       <c r="O111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>90.729999999999563</v>
       </c>
       <c r="P111">
@@ -50044,23 +49773,23 @@
       <c r="S111">
         <v>91.1</v>
       </c>
-      <c r="T111" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="U111" s="54">
-        <v>5</v>
+      <c r="T111">
+        <v>0.896424</v>
+      </c>
+      <c r="U111">
+        <v>7.5130169999999996</v>
       </c>
       <c r="V111">
-        <f>(S111-(S111*P111))</f>
+        <f t="shared" si="38"/>
         <v>100.90984238950782</v>
       </c>
-      <c r="W111" s="57">
-        <f>100*T111/V111</f>
-        <v>0.49549180551686989</v>
+      <c r="W111" s="56">
+        <f t="shared" si="39"/>
+        <v>0.8883414925373091</v>
       </c>
       <c r="X111">
-        <f>100*U111/V111</f>
-        <v>4.9549180551686991</v>
+        <f t="shared" si="40"/>
+        <v>7.4452767164178741</v>
       </c>
       <c r="AB111" s="46"/>
       <c r="AC111" s="46"/>
